--- a/Data/pornhub_analysis.xlsx
+++ b/Data/pornhub_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="705" windowWidth="27315" windowHeight="12270" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="765" windowWidth="27315" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pornhub_analysis" sheetId="2" r:id="rId1"/>
@@ -20,13 +20,13 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="33" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="162">
   <si>
     <t>state</t>
   </si>
@@ -469,12 +469,6 @@
     <t>DC PERCAPITA PAGE VIEWS</t>
   </si>
   <si>
-    <t>Count of state2</t>
-  </si>
-  <si>
-    <t>Total Count of state2</t>
-  </si>
-  <si>
     <t>weight</t>
   </si>
   <si>
@@ -494,9 +488,6 @@
   </si>
   <si>
     <t>Sum of weight</t>
-  </si>
-  <si>
-    <t>Total Sum of weight</t>
   </si>
   <si>
     <t>GENRE</t>
@@ -564,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -573,6 +564,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,7 +588,60 @@
   </cacheSource>
   <cacheFields count="11">
     <cacheField name="state" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsBlank="1" count="52">
+        <s v="Alabama"/>
+        <s v="Alaska"/>
+        <s v="Arizona"/>
+        <s v="Arkansas"/>
+        <s v="California"/>
+        <s v="Colorado"/>
+        <s v="Connecticut"/>
+        <s v="Delaware"/>
+        <s v="District of Columbia"/>
+        <s v="Florida"/>
+        <s v="Georgia"/>
+        <s v="Hawaii"/>
+        <s v="Idaho"/>
+        <s v="Illinois"/>
+        <s v="Indiana"/>
+        <s v="Iowa"/>
+        <s v="Kansas"/>
+        <s v="Kentucky"/>
+        <s v="Louisiana"/>
+        <s v="Maine"/>
+        <s v="Maryland"/>
+        <s v="Massachusetts"/>
+        <s v="Michigan"/>
+        <s v="Minnesota"/>
+        <s v="Mississippi"/>
+        <s v="Missouri"/>
+        <s v="Montana"/>
+        <s v="Nebraska"/>
+        <s v="Nevada"/>
+        <s v="New Hampshire"/>
+        <s v="New Jersey"/>
+        <s v="New Mexico"/>
+        <s v="New York"/>
+        <s v="North Carolina"/>
+        <s v="North Dakota"/>
+        <s v="Ohio"/>
+        <s v="Oklahoma"/>
+        <s v="Oregon"/>
+        <s v="Pennsylvania"/>
+        <s v="Rhode Island"/>
+        <s v="South Carolina"/>
+        <s v="South Dakota"/>
+        <s v="Tennessee"/>
+        <s v="Texas"/>
+        <s v="Utah"/>
+        <s v="Vermont"/>
+        <s v="Virginia"/>
+        <s v="Washington"/>
+        <s v="West Virginia"/>
+        <s v="Wisconsin"/>
+        <s v="Wyoming"/>
+        <m/>
+      </sharedItems>
     </cacheField>
     <cacheField name="avg_time" numFmtId="0">
       <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T00:10:00" maxDate="1899-12-30T00:11:59"/>
@@ -664,7 +711,7 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="154">
   <r>
-    <s v="Alabama"/>
+    <x v="0"/>
     <d v="1899-12-30T00:11:40"/>
     <n v="96"/>
     <s v="RED"/>
@@ -677,7 +724,7 @@
     <n v="5.6032323304596584E-3"/>
   </r>
   <r>
-    <s v="Alaska"/>
+    <x v="1"/>
     <d v="1899-12-30T00:10:54"/>
     <n v="106"/>
     <s v="RED"/>
@@ -690,7 +737,7 @@
     <n v="9.409291451392593E-4"/>
   </r>
   <r>
-    <s v="Arizona"/>
+    <x v="2"/>
     <d v="1899-12-30T00:10:59"/>
     <n v="140"/>
     <s v="RED"/>
@@ -703,7 +750,7 @@
     <n v="1.1202271461748287E-2"/>
   </r>
   <r>
-    <s v="Arkansas"/>
+    <x v="3"/>
     <d v="1899-12-30T00:11:43"/>
     <n v="77"/>
     <s v="RED"/>
@@ -716,7 +763,7 @@
     <n v="2.7515420878584068E-3"/>
   </r>
   <r>
-    <s v="California"/>
+    <x v="4"/>
     <d v="1899-12-30T00:11:18"/>
     <n v="144"/>
     <s v="BLUE"/>
@@ -729,7 +776,7 @@
     <n v="6.6652370877521641E-2"/>
   </r>
   <r>
-    <s v="Colorado"/>
+    <x v="5"/>
     <d v="1899-12-30T00:10:37"/>
     <n v="159"/>
     <s v="SWING"/>
@@ -742,7 +789,7 @@
     <n v="1.0114836636665016E-2"/>
   </r>
   <r>
-    <s v="Connecticut"/>
+    <x v="6"/>
     <d v="1899-12-30T00:10:12"/>
     <n v="122"/>
     <s v="BLUE"/>
@@ -755,7 +802,7 @@
     <n v="5.297548033611924E-3"/>
   </r>
   <r>
-    <s v="Delaware"/>
+    <x v="7"/>
     <d v="1899-12-30T00:10:43"/>
     <n v="129"/>
     <s v="BLUE"/>
@@ -768,7 +815,7 @@
     <n v="1.4420113866686218E-3"/>
   </r>
   <r>
-    <s v="District of Columbia"/>
+    <x v="8"/>
     <d v="1899-12-30T00:11:20"/>
     <n v="116"/>
     <s v="BLUE"/>
@@ -781,7 +828,7 @@
     <n v="9.0547817126400518E-4"/>
   </r>
   <r>
-    <s v="Florida"/>
+    <x v="9"/>
     <d v="1899-12-30T00:10:55"/>
     <n v="127"/>
     <s v="SWING"/>
@@ -794,7 +841,7 @@
     <n v="2.9984702173537353E-2"/>
   </r>
   <r>
-    <s v="Georgia"/>
+    <x v="10"/>
     <d v="1899-12-30T00:11:34"/>
     <n v="145"/>
     <s v="RED"/>
@@ -807,7 +854,7 @@
     <n v="1.7494978532963428E-2"/>
   </r>
   <r>
-    <s v="Hawaii"/>
+    <x v="11"/>
     <d v="1899-12-30T00:11:53"/>
     <n v="149"/>
     <s v="BLUE"/>
@@ -820,7 +867,7 @@
     <n v="2.5261306448783358E-3"/>
   </r>
   <r>
-    <s v="Idaho"/>
+    <x v="12"/>
     <d v="1899-12-30T00:10:28"/>
     <n v="80"/>
     <s v="RED"/>
@@ -833,7 +880,7 @@
     <n v="1.5573183143165713E-3"/>
   </r>
   <r>
-    <s v="Illinois"/>
+    <x v="13"/>
     <d v="1899-12-30T00:10:34"/>
     <n v="161"/>
     <s v="BLUE"/>
@@ -846,7 +893,7 @@
     <n v="2.5043755201505636E-2"/>
   </r>
   <r>
-    <s v="Indiana"/>
+    <x v="14"/>
     <d v="1899-12-30T00:10:47"/>
     <n v="101"/>
     <s v="RED"/>
@@ -859,7 +906,7 @@
     <n v="8.0136817601315757E-3"/>
   </r>
   <r>
-    <s v="Iowa"/>
+    <x v="15"/>
     <d v="1899-12-30T00:10:46"/>
     <n v="118"/>
     <s v="SWING"/>
@@ -872,7 +919,7 @@
     <n v="4.4033649255360704E-3"/>
   </r>
   <r>
-    <s v="Kansas"/>
+    <x v="16"/>
     <d v="1899-12-30T00:10:54"/>
     <n v="194"/>
     <s v="RED"/>
@@ -885,7 +932,7 @@
     <n v="6.7792169361584609E-3"/>
   </r>
   <r>
-    <s v="Kentucky"/>
+    <x v="17"/>
     <d v="1899-12-30T00:10:59"/>
     <n v="121"/>
     <s v="RED"/>
@@ -898,7 +945,7 @@
     <n v="6.421834769517046E-3"/>
   </r>
   <r>
-    <s v="Louisiana"/>
+    <x v="18"/>
     <d v="1899-12-30T00:11:36"/>
     <n v="106"/>
     <s v="RED"/>
@@ -911,7 +958,7 @@
     <n v="5.9203510838424797E-3"/>
   </r>
   <r>
-    <s v="Maine"/>
+    <x v="19"/>
     <d v="1899-12-30T00:10:19"/>
     <n v="92"/>
     <s v="BLUE"/>
@@ -924,7 +971,7 @@
     <n v="1.4756058957028624E-3"/>
   </r>
   <r>
-    <s v="Maryland"/>
+    <x v="20"/>
     <d v="1899-12-30T00:11:24"/>
     <n v="126"/>
     <s v="BLUE"/>
@@ -937,7 +984,7 @@
     <n v="9.0203647418040222E-3"/>
   </r>
   <r>
-    <s v="Massachusetts"/>
+    <x v="21"/>
     <d v="1899-12-30T00:10:07"/>
     <n v="153"/>
     <s v="BLUE"/>
@@ -950,7 +997,7 @@
     <n v="1.236478483068206E-2"/>
   </r>
   <r>
-    <s v="Michigan"/>
+    <x v="22"/>
     <d v="1899-12-30T00:11:03"/>
     <n v="130"/>
     <s v="SWING"/>
@@ -963,7 +1010,7 @@
     <n v="1.5533602146314092E-2"/>
   </r>
   <r>
-    <s v="Minnesota"/>
+    <x v="23"/>
     <d v="1899-12-30T00:10:40"/>
     <n v="136"/>
     <s v="BLUE"/>
@@ -976,7 +1023,7 @@
     <n v="8.9013191044328369E-3"/>
   </r>
   <r>
-    <s v="Mississippi"/>
+    <x v="24"/>
     <d v="1899-12-30T00:11:59"/>
     <n v="113"/>
     <s v="RED"/>
@@ -989,7 +1036,7 @@
     <n v="4.081413905684352E-3"/>
   </r>
   <r>
-    <s v="Missouri"/>
+    <x v="25"/>
     <d v="1899-12-30T00:11:12"/>
     <n v="125"/>
     <s v="RED"/>
@@ -1002,7 +1049,7 @@
     <n v="9.1228909513925791E-3"/>
   </r>
   <r>
-    <s v="Montana"/>
+    <x v="26"/>
     <d v="1899-12-30T00:10:34"/>
     <n v="90"/>
     <s v="RED"/>
@@ -1015,7 +1062,7 @@
     <n v="1.1032269779797299E-3"/>
   </r>
   <r>
-    <s v="Nebraska"/>
+    <x v="27"/>
     <d v="1899-12-30T00:10:34"/>
     <n v="129"/>
     <s v="RED"/>
@@ -1028,7 +1075,7 @@
     <n v="2.9105312003280663E-3"/>
   </r>
   <r>
-    <s v="Nevada"/>
+    <x v="28"/>
     <d v="1899-12-30T00:11:15"/>
     <n v="166"/>
     <s v="SWING"/>
@@ -1041,7 +1088,7 @@
     <n v="5.5926699275901728E-3"/>
   </r>
   <r>
-    <s v="New Hampshire"/>
+    <x v="29"/>
     <d v="1899-12-30T00:10:02"/>
     <n v="129"/>
     <s v="SWING"/>
@@ -1054,7 +1101,7 @@
     <n v="2.0615122973819773E-3"/>
   </r>
   <r>
-    <s v="New Jersey"/>
+    <x v="30"/>
     <d v="1899-12-30T00:10:15"/>
     <n v="135"/>
     <s v="BLUE"/>
@@ -1067,7 +1114,7 @@
     <n v="1.4506987835948568E-2"/>
   </r>
   <r>
-    <s v="New Mexico"/>
+    <x v="31"/>
     <d v="1899-12-30T00:11:01"/>
     <n v="93"/>
     <s v="SWING"/>
@@ -1080,7 +1127,7 @@
     <n v="2.3417175576431067E-3"/>
   </r>
   <r>
-    <s v="New York"/>
+    <x v="32"/>
     <d v="1899-12-30T00:10:18"/>
     <n v="148"/>
     <s v="BLUE"/>
@@ -1093,7 +1140,7 @@
     <n v="3.5118414917855938E-2"/>
   </r>
   <r>
-    <s v="North Carolina"/>
+    <x v="33"/>
     <d v="1899-12-30T00:11:07"/>
     <n v="116"/>
     <s v="SWING"/>
@@ -1106,7 +1153,7 @@
     <n v="1.3794132807535006E-2"/>
   </r>
   <r>
-    <s v="North Dakota"/>
+    <x v="34"/>
     <d v="1899-12-30T00:10:26"/>
     <n v="123"/>
     <s v="RED"/>
@@ -1119,7 +1166,7 @@
     <n v="1.0743978763566948E-3"/>
   </r>
   <r>
-    <s v="Ohio"/>
+    <x v="35"/>
     <d v="1899-12-30T00:10:31"/>
     <n v="116"/>
     <s v="SWING"/>
@@ -1132,7 +1179,7 @@
     <n v="1.6207178088119743E-2"/>
   </r>
   <r>
-    <s v="Oklahoma"/>
+    <x v="36"/>
     <d v="1899-12-30T00:11:20"/>
     <n v="126"/>
     <s v="RED"/>
@@ -1145,7 +1192,7 @@
     <n v="5.8584276422095254E-3"/>
   </r>
   <r>
-    <s v="Oregon"/>
+    <x v="37"/>
     <d v="1899-12-30T00:10:33"/>
     <n v="113"/>
     <s v="BLUE"/>
@@ -1158,7 +1205,7 @@
     <n v="5.3624580115128702E-3"/>
   </r>
   <r>
-    <s v="Pennsylvania"/>
+    <x v="38"/>
     <d v="1899-12-30T00:10:26"/>
     <n v="125"/>
     <s v="SWING"/>
@@ -1171,7 +1218,7 @@
     <n v="1.928039321815837E-2"/>
   </r>
   <r>
-    <s v="Rhode Island"/>
+    <x v="39"/>
     <d v="1899-12-30T00:10:00"/>
     <n v="129"/>
     <s v="BLUE"/>
@@ -1184,7 +1231,7 @@
     <n v="1.637907073307462E-3"/>
   </r>
   <r>
-    <s v="South Carolina"/>
+    <x v="40"/>
     <d v="1899-12-30T00:11:18"/>
     <n v="90"/>
     <s v="RED"/>
@@ -1197,7 +1244,7 @@
     <n v="5.1890394175427203E-3"/>
   </r>
   <r>
-    <s v="South Dakota"/>
+    <x v="41"/>
     <d v="1899-12-30T00:10:29"/>
     <n v="88"/>
     <s v="RED"/>
@@ -1210,7 +1257,7 @@
     <n v="8.9776338223904564E-4"/>
   </r>
   <r>
-    <s v="Tennessee"/>
+    <x v="42"/>
     <d v="1899-12-30T00:11:15"/>
     <n v="104"/>
     <s v="RED"/>
@@ -1223,7 +1270,7 @@
     <n v="8.1576226580367863E-3"/>
   </r>
   <r>
-    <s v="Texas"/>
+    <x v="43"/>
     <d v="1899-12-30T00:11:12"/>
     <n v="139"/>
     <s v="RED"/>
@@ -1236,7 +1283,7 @@
     <n v="4.4391164053371034E-2"/>
   </r>
   <r>
-    <s v="Utah"/>
+    <x v="44"/>
     <d v="1899-12-30T00:10:22"/>
     <n v="94"/>
     <s v="RED"/>
@@ -1249,7 +1296,7 @@
     <n v="3.2926240617283937E-3"/>
   </r>
   <r>
-    <s v="Vermont"/>
+    <x v="45"/>
     <d v="1899-12-30T00:10:01"/>
     <n v="106"/>
     <s v="BLUE"/>
@@ -1262,7 +1309,7 @@
     <n v="8.0205246162405391E-4"/>
   </r>
   <r>
-    <s v="Virginia"/>
+    <x v="46"/>
     <d v="1899-12-30T00:10:51"/>
     <n v="146"/>
     <s v="SWING"/>
@@ -1275,7 +1322,7 @@
     <n v="1.4562633662460378E-2"/>
   </r>
   <r>
-    <s v="Washington"/>
+    <x v="47"/>
     <d v="1899-12-30T00:10:15"/>
     <n v="141"/>
     <s v="BLUE"/>
@@ -1288,7 +1335,7 @@
     <n v="1.1869302992174953E-2"/>
   </r>
   <r>
-    <s v="West Virginia"/>
+    <x v="48"/>
     <d v="1899-12-30T00:10:55"/>
     <n v="88"/>
     <s v="RED"/>
@@ -1301,7 +1348,7 @@
     <n v="1.9703770261699531E-3"/>
   </r>
   <r>
-    <s v="Wisconsin"/>
+    <x v="49"/>
     <d v="1899-12-30T00:10:35"/>
     <n v="113"/>
     <s v="SWING"/>
@@ -1314,7 +1361,7 @@
     <n v="7.8357628524385985E-3"/>
   </r>
   <r>
-    <s v="Wyoming"/>
+    <x v="50"/>
     <d v="1899-12-30T00:10:38"/>
     <n v="89"/>
     <s v="RED"/>
@@ -1327,7 +1374,7 @@
     <n v="6.2616595095026702E-4"/>
   </r>
   <r>
-    <s v="Alabama"/>
+    <x v="0"/>
     <d v="1899-12-30T00:11:40"/>
     <n v="96"/>
     <s v="RED"/>
@@ -1340,7 +1387,7 @@
     <n v="3.7354882203064388E-3"/>
   </r>
   <r>
-    <s v="Alaska"/>
+    <x v="1"/>
     <d v="1899-12-30T00:10:54"/>
     <n v="106"/>
     <s v="RED"/>
@@ -1353,7 +1400,7 @@
     <n v="6.2728609675950623E-4"/>
   </r>
   <r>
-    <s v="Arizona"/>
+    <x v="2"/>
     <d v="1899-12-30T00:10:59"/>
     <n v="140"/>
     <s v="RED"/>
@@ -1366,7 +1413,7 @@
     <n v="7.468180974498858E-3"/>
   </r>
   <r>
-    <s v="Arkansas"/>
+    <x v="3"/>
     <d v="1899-12-30T00:11:43"/>
     <n v="77"/>
     <s v="RED"/>
@@ -1379,7 +1426,7 @@
     <n v="1.8343613919056046E-3"/>
   </r>
   <r>
-    <s v="California"/>
+    <x v="4"/>
     <d v="1899-12-30T00:11:18"/>
     <n v="144"/>
     <s v="BLUE"/>
@@ -1392,7 +1439,7 @@
     <n v="4.4434913918347758E-2"/>
   </r>
   <r>
-    <s v="Colorado"/>
+    <x v="5"/>
     <d v="1899-12-30T00:10:37"/>
     <n v="159"/>
     <s v="SWING"/>
@@ -1405,7 +1452,7 @@
     <n v="6.7432244244433441E-3"/>
   </r>
   <r>
-    <s v="Connecticut"/>
+    <x v="6"/>
     <d v="1899-12-30T00:10:12"/>
     <n v="122"/>
     <s v="BLUE"/>
@@ -1418,7 +1465,7 @@
     <n v="3.5316986890746162E-3"/>
   </r>
   <r>
-    <s v="Delaware"/>
+    <x v="7"/>
     <d v="1899-12-30T00:10:43"/>
     <n v="129"/>
     <s v="BLUE"/>
@@ -1431,7 +1478,7 @@
     <n v="9.6134092444574801E-4"/>
   </r>
   <r>
-    <s v="District of Columbia"/>
+    <x v="8"/>
     <d v="1899-12-30T00:11:20"/>
     <n v="116"/>
     <s v="BLUE"/>
@@ -1444,7 +1491,7 @@
     <n v="6.0365211417600349E-4"/>
   </r>
   <r>
-    <s v="Florida"/>
+    <x v="9"/>
     <d v="1899-12-30T00:10:55"/>
     <n v="127"/>
     <s v="SWING"/>
@@ -1457,7 +1504,7 @@
     <n v="1.9989801449024902E-2"/>
   </r>
   <r>
-    <s v="Georgia"/>
+    <x v="10"/>
     <d v="1899-12-30T00:11:34"/>
     <n v="145"/>
     <s v="RED"/>
@@ -1470,7 +1517,7 @@
     <n v="1.1663319021975619E-2"/>
   </r>
   <r>
-    <s v="Hawaii"/>
+    <x v="11"/>
     <d v="1899-12-30T00:11:53"/>
     <n v="149"/>
     <s v="BLUE"/>
@@ -1483,7 +1530,7 @@
     <n v="1.6840870965855572E-3"/>
   </r>
   <r>
-    <s v="Idaho"/>
+    <x v="12"/>
     <d v="1899-12-30T00:10:28"/>
     <n v="80"/>
     <s v="RED"/>
@@ -1496,7 +1543,7 @@
     <n v="1.0382122095443809E-3"/>
   </r>
   <r>
-    <s v="Illinois"/>
+    <x v="13"/>
     <d v="1899-12-30T00:10:34"/>
     <n v="161"/>
     <s v="BLUE"/>
@@ -1509,7 +1556,7 @@
     <n v="1.6695836801003758E-2"/>
   </r>
   <r>
-    <s v="Indiana"/>
+    <x v="14"/>
     <d v="1899-12-30T00:10:47"/>
     <n v="101"/>
     <s v="RED"/>
@@ -1522,7 +1569,7 @@
     <n v="5.3424545067543841E-3"/>
   </r>
   <r>
-    <s v="Iowa"/>
+    <x v="15"/>
     <d v="1899-12-30T00:10:46"/>
     <n v="118"/>
     <s v="SWING"/>
@@ -1535,7 +1582,7 @@
     <n v="2.9355766170240469E-3"/>
   </r>
   <r>
-    <s v="Kansas"/>
+    <x v="16"/>
     <d v="1899-12-30T00:10:54"/>
     <n v="194"/>
     <s v="RED"/>
@@ -1548,7 +1595,7 @@
     <n v="4.5194779574389736E-3"/>
   </r>
   <r>
-    <s v="Kentucky"/>
+    <x v="17"/>
     <d v="1899-12-30T00:10:59"/>
     <n v="121"/>
     <s v="RED"/>
@@ -1561,7 +1608,7 @@
     <n v="4.2812231796780309E-3"/>
   </r>
   <r>
-    <s v="Louisiana"/>
+    <x v="18"/>
     <d v="1899-12-30T00:11:36"/>
     <n v="106"/>
     <s v="RED"/>
@@ -1574,7 +1621,7 @@
     <n v="3.9469007225616535E-3"/>
   </r>
   <r>
-    <s v="Maine"/>
+    <x v="19"/>
     <d v="1899-12-30T00:10:19"/>
     <n v="92"/>
     <s v="BLUE"/>
@@ -1587,7 +1634,7 @@
     <n v="9.8373726380190821E-4"/>
   </r>
   <r>
-    <s v="Maryland"/>
+    <x v="20"/>
     <d v="1899-12-30T00:11:24"/>
     <n v="126"/>
     <s v="BLUE"/>
@@ -1600,7 +1647,7 @@
     <n v="6.0135764945360151E-3"/>
   </r>
   <r>
-    <s v="Massachusetts"/>
+    <x v="21"/>
     <d v="1899-12-30T00:10:07"/>
     <n v="153"/>
     <s v="BLUE"/>
@@ -1613,7 +1660,7 @@
     <n v="8.2431898871213726E-3"/>
   </r>
   <r>
-    <s v="Michigan"/>
+    <x v="22"/>
     <d v="1899-12-30T00:11:03"/>
     <n v="130"/>
     <s v="SWING"/>
@@ -1626,7 +1673,7 @@
     <n v="1.0355734764209394E-2"/>
   </r>
   <r>
-    <s v="Minnesota"/>
+    <x v="23"/>
     <d v="1899-12-30T00:10:40"/>
     <n v="136"/>
     <s v="BLUE"/>
@@ -1639,7 +1686,7 @@
     <n v="5.9342127362885582E-3"/>
   </r>
   <r>
-    <s v="Mississippi"/>
+    <x v="24"/>
     <d v="1899-12-30T00:11:59"/>
     <n v="113"/>
     <s v="RED"/>
@@ -1652,7 +1699,7 @@
     <n v="2.7209426037895679E-3"/>
   </r>
   <r>
-    <s v="Missouri"/>
+    <x v="25"/>
     <d v="1899-12-30T00:11:12"/>
     <n v="125"/>
     <s v="RED"/>
@@ -1665,7 +1712,7 @@
     <n v="6.0819273009283864E-3"/>
   </r>
   <r>
-    <s v="Montana"/>
+    <x v="26"/>
     <d v="1899-12-30T00:10:34"/>
     <n v="90"/>
     <s v="RED"/>
@@ -1678,7 +1725,7 @@
     <n v="7.3548465198648662E-4"/>
   </r>
   <r>
-    <s v="Nebraska"/>
+    <x v="27"/>
     <d v="1899-12-30T00:10:34"/>
     <n v="129"/>
     <s v="RED"/>
@@ -1691,7 +1738,7 @@
     <n v="1.9403541335520442E-3"/>
   </r>
   <r>
-    <s v="Nevada"/>
+    <x v="28"/>
     <d v="1899-12-30T00:11:15"/>
     <n v="166"/>
     <s v="SWING"/>
@@ -1704,7 +1751,7 @@
     <n v="3.7284466183934487E-3"/>
   </r>
   <r>
-    <s v="New Hampshire"/>
+    <x v="29"/>
     <d v="1899-12-30T00:10:02"/>
     <n v="129"/>
     <s v="SWING"/>
@@ -1717,7 +1764,7 @@
     <n v="1.3743415315879848E-3"/>
   </r>
   <r>
-    <s v="New Jersey"/>
+    <x v="30"/>
     <d v="1899-12-30T00:10:15"/>
     <n v="135"/>
     <s v="BLUE"/>
@@ -1730,7 +1777,7 @@
     <n v="9.671325223965712E-3"/>
   </r>
   <r>
-    <s v="New Mexico"/>
+    <x v="31"/>
     <d v="1899-12-30T00:11:01"/>
     <n v="93"/>
     <s v="SWING"/>
@@ -1743,7 +1790,7 @@
     <n v="1.5611450384287377E-3"/>
   </r>
   <r>
-    <s v="New York"/>
+    <x v="32"/>
     <d v="1899-12-30T00:10:18"/>
     <n v="148"/>
     <s v="BLUE"/>
@@ -1756,7 +1803,7 @@
     <n v="2.3412276611903957E-2"/>
   </r>
   <r>
-    <s v="North Carolina"/>
+    <x v="33"/>
     <d v="1899-12-30T00:11:07"/>
     <n v="116"/>
     <s v="SWING"/>
@@ -1769,7 +1816,7 @@
     <n v="9.1960885383566716E-3"/>
   </r>
   <r>
-    <s v="North Dakota"/>
+    <x v="34"/>
     <d v="1899-12-30T00:10:26"/>
     <n v="123"/>
     <s v="RED"/>
@@ -1782,7 +1829,7 @@
     <n v="7.1626525090446322E-4"/>
   </r>
   <r>
-    <s v="Ohio"/>
+    <x v="35"/>
     <d v="1899-12-30T00:10:31"/>
     <n v="116"/>
     <s v="SWING"/>
@@ -1795,7 +1842,7 @@
     <n v="1.0804785392079829E-2"/>
   </r>
   <r>
-    <s v="Oklahoma"/>
+    <x v="36"/>
     <d v="1899-12-30T00:11:20"/>
     <n v="126"/>
     <s v="RED"/>
@@ -1808,7 +1855,7 @@
     <n v="3.9056184281396843E-3"/>
   </r>
   <r>
-    <s v="Oregon"/>
+    <x v="37"/>
     <d v="1899-12-30T00:10:33"/>
     <n v="113"/>
     <s v="BLUE"/>
@@ -1821,7 +1868,7 @@
     <n v="3.5749720076752463E-3"/>
   </r>
   <r>
-    <s v="Pennsylvania"/>
+    <x v="38"/>
     <d v="1899-12-30T00:10:26"/>
     <n v="125"/>
     <s v="SWING"/>
@@ -1834,7 +1881,7 @@
     <n v="1.2853595478772246E-2"/>
   </r>
   <r>
-    <s v="Rhode Island"/>
+    <x v="39"/>
     <d v="1899-12-30T00:10:00"/>
     <n v="129"/>
     <s v="BLUE"/>
@@ -1847,7 +1894,7 @@
     <n v="1.0919380488716413E-3"/>
   </r>
   <r>
-    <s v="South Carolina"/>
+    <x v="40"/>
     <d v="1899-12-30T00:11:18"/>
     <n v="90"/>
     <s v="RED"/>
@@ -1860,7 +1907,7 @@
     <n v="3.4593596116951468E-3"/>
   </r>
   <r>
-    <s v="South Dakota"/>
+    <x v="41"/>
     <d v="1899-12-30T00:10:29"/>
     <n v="88"/>
     <s v="RED"/>
@@ -1873,7 +1920,7 @@
     <n v="5.9850892149269713E-4"/>
   </r>
   <r>
-    <s v="Tennessee"/>
+    <x v="42"/>
     <d v="1899-12-30T00:11:15"/>
     <n v="104"/>
     <s v="RED"/>
@@ -1886,7 +1933,7 @@
     <n v="5.4384151053578573E-3"/>
   </r>
   <r>
-    <s v="Texas"/>
+    <x v="43"/>
     <d v="1899-12-30T00:11:12"/>
     <n v="139"/>
     <s v="RED"/>
@@ -1899,7 +1946,7 @@
     <n v="2.9594109368914018E-2"/>
   </r>
   <r>
-    <s v="Utah"/>
+    <x v="44"/>
     <d v="1899-12-30T00:10:22"/>
     <n v="94"/>
     <s v="RED"/>
@@ -1912,7 +1959,7 @@
     <n v="2.195082707818929E-3"/>
   </r>
   <r>
-    <s v="Vermont"/>
+    <x v="45"/>
     <d v="1899-12-30T00:10:01"/>
     <n v="106"/>
     <s v="BLUE"/>
@@ -1925,7 +1972,7 @@
     <n v="5.3470164108270271E-4"/>
   </r>
   <r>
-    <s v="Virginia"/>
+    <x v="46"/>
     <d v="1899-12-30T00:10:51"/>
     <n v="146"/>
     <s v="SWING"/>
@@ -1938,7 +1985,7 @@
     <n v="9.7084224416402517E-3"/>
   </r>
   <r>
-    <s v="Washington"/>
+    <x v="47"/>
     <d v="1899-12-30T00:10:15"/>
     <n v="141"/>
     <s v="BLUE"/>
@@ -1951,7 +1998,7 @@
     <n v="7.9128686614499694E-3"/>
   </r>
   <r>
-    <s v="West Virginia"/>
+    <x v="48"/>
     <d v="1899-12-30T00:10:55"/>
     <n v="88"/>
     <s v="RED"/>
@@ -1964,7 +2011,7 @@
     <n v="1.3135846841133021E-3"/>
   </r>
   <r>
-    <s v="Wisconsin"/>
+    <x v="49"/>
     <d v="1899-12-30T00:10:35"/>
     <n v="113"/>
     <s v="SWING"/>
@@ -1977,7 +2024,7 @@
     <n v="5.2238419016257323E-3"/>
   </r>
   <r>
-    <s v="Wyoming"/>
+    <x v="50"/>
     <d v="1899-12-30T00:10:38"/>
     <n v="89"/>
     <s v="RED"/>
@@ -1990,7 +2037,7 @@
     <n v="4.1744396730017803E-4"/>
   </r>
   <r>
-    <s v="Alabama"/>
+    <x v="0"/>
     <d v="1899-12-30T00:11:40"/>
     <n v="96"/>
     <s v="RED"/>
@@ -2003,7 +2050,7 @@
     <n v="1.8677441101532194E-3"/>
   </r>
   <r>
-    <s v="Alaska"/>
+    <x v="1"/>
     <d v="1899-12-30T00:10:54"/>
     <n v="106"/>
     <s v="RED"/>
@@ -2016,7 +2063,7 @@
     <n v="3.1364304837975312E-4"/>
   </r>
   <r>
-    <s v="Arizona"/>
+    <x v="2"/>
     <d v="1899-12-30T00:10:59"/>
     <n v="140"/>
     <s v="RED"/>
@@ -2029,7 +2076,7 @@
     <n v="3.734090487249429E-3"/>
   </r>
   <r>
-    <s v="Arkansas"/>
+    <x v="3"/>
     <d v="1899-12-30T00:11:43"/>
     <n v="77"/>
     <s v="RED"/>
@@ -2042,7 +2089,7 @@
     <n v="9.171806959528023E-4"/>
   </r>
   <r>
-    <s v="California"/>
+    <x v="4"/>
     <d v="1899-12-30T00:11:18"/>
     <n v="144"/>
     <s v="BLUE"/>
@@ -2055,7 +2102,7 @@
     <n v="2.2217456959173879E-2"/>
   </r>
   <r>
-    <s v="Colorado"/>
+    <x v="5"/>
     <d v="1899-12-30T00:10:37"/>
     <n v="159"/>
     <s v="SWING"/>
@@ -2068,7 +2115,7 @@
     <n v="3.3716122122216721E-3"/>
   </r>
   <r>
-    <s v="Connecticut"/>
+    <x v="6"/>
     <d v="1899-12-30T00:10:12"/>
     <n v="122"/>
     <s v="BLUE"/>
@@ -2081,7 +2128,7 @@
     <n v="1.7658493445373081E-3"/>
   </r>
   <r>
-    <s v="Delaware"/>
+    <x v="7"/>
     <d v="1899-12-30T00:10:43"/>
     <n v="129"/>
     <s v="BLUE"/>
@@ -2094,7 +2141,7 @@
     <n v="4.8067046222287401E-4"/>
   </r>
   <r>
-    <s v="District of Columbia"/>
+    <x v="8"/>
     <d v="1899-12-30T00:11:20"/>
     <n v="116"/>
     <s v="BLUE"/>
@@ -2107,7 +2154,7 @@
     <n v="3.0182605708800175E-4"/>
   </r>
   <r>
-    <s v="Florida"/>
+    <x v="9"/>
     <d v="1899-12-30T00:10:55"/>
     <n v="127"/>
     <s v="SWING"/>
@@ -2120,7 +2167,7 @@
     <n v="9.994900724512451E-3"/>
   </r>
   <r>
-    <s v="Georgia"/>
+    <x v="10"/>
     <d v="1899-12-30T00:11:34"/>
     <n v="145"/>
     <s v="RED"/>
@@ -2133,7 +2180,7 @@
     <n v="5.8316595109878097E-3"/>
   </r>
   <r>
-    <s v="Hawaii"/>
+    <x v="11"/>
     <d v="1899-12-30T00:11:53"/>
     <n v="149"/>
     <s v="BLUE"/>
@@ -2146,7 +2193,7 @@
     <n v="8.4204354829277859E-4"/>
   </r>
   <r>
-    <s v="Idaho"/>
+    <x v="12"/>
     <d v="1899-12-30T00:10:28"/>
     <n v="80"/>
     <s v="RED"/>
@@ -2159,7 +2206,7 @@
     <n v="5.1910610477219046E-4"/>
   </r>
   <r>
-    <s v="Illinois"/>
+    <x v="13"/>
     <d v="1899-12-30T00:10:34"/>
     <n v="161"/>
     <s v="BLUE"/>
@@ -2172,7 +2219,7 @@
     <n v="8.3479184005018792E-3"/>
   </r>
   <r>
-    <s v="Indiana"/>
+    <x v="14"/>
     <d v="1899-12-30T00:10:47"/>
     <n v="101"/>
     <s v="RED"/>
@@ -2185,7 +2232,7 @@
     <n v="2.671227253377192E-3"/>
   </r>
   <r>
-    <s v="Iowa"/>
+    <x v="15"/>
     <d v="1899-12-30T00:10:46"/>
     <n v="118"/>
     <s v="SWING"/>
@@ -2198,7 +2245,7 @@
     <n v="1.4677883085120235E-3"/>
   </r>
   <r>
-    <s v="Kansas"/>
+    <x v="16"/>
     <d v="1899-12-30T00:10:54"/>
     <n v="194"/>
     <s v="RED"/>
@@ -2211,7 +2258,7 @@
     <n v="2.2597389787194868E-3"/>
   </r>
   <r>
-    <s v="Kentucky"/>
+    <x v="17"/>
     <d v="1899-12-30T00:10:59"/>
     <n v="121"/>
     <s v="RED"/>
@@ -2224,7 +2271,7 @@
     <n v="2.1406115898390155E-3"/>
   </r>
   <r>
-    <s v="Louisiana"/>
+    <x v="18"/>
     <d v="1899-12-30T00:11:36"/>
     <n v="106"/>
     <s v="RED"/>
@@ -2237,7 +2284,7 @@
     <n v="1.9734503612808267E-3"/>
   </r>
   <r>
-    <s v="Maine"/>
+    <x v="19"/>
     <d v="1899-12-30T00:10:19"/>
     <n v="92"/>
     <s v="BLUE"/>
@@ -2250,7 +2297,7 @@
     <n v="4.918686319009541E-4"/>
   </r>
   <r>
-    <s v="Maryland"/>
+    <x v="20"/>
     <d v="1899-12-30T00:11:24"/>
     <n v="126"/>
     <s v="BLUE"/>
@@ -2263,7 +2310,7 @@
     <n v="3.0067882472680075E-3"/>
   </r>
   <r>
-    <s v="Massachusetts"/>
+    <x v="21"/>
     <d v="1899-12-30T00:10:07"/>
     <n v="153"/>
     <s v="BLUE"/>
@@ -2276,7 +2323,7 @@
     <n v="4.1215949435606863E-3"/>
   </r>
   <r>
-    <s v="Michigan"/>
+    <x v="22"/>
     <d v="1899-12-30T00:11:03"/>
     <n v="130"/>
     <s v="SWING"/>
@@ -2289,7 +2336,7 @@
     <n v="5.1778673821046969E-3"/>
   </r>
   <r>
-    <s v="Minnesota"/>
+    <x v="23"/>
     <d v="1899-12-30T00:10:40"/>
     <n v="136"/>
     <s v="BLUE"/>
@@ -2302,7 +2349,7 @@
     <n v="2.9671063681442791E-3"/>
   </r>
   <r>
-    <s v="Mississippi"/>
+    <x v="24"/>
     <d v="1899-12-30T00:11:59"/>
     <n v="113"/>
     <s v="RED"/>
@@ -2315,7 +2362,7 @@
     <n v="1.3604713018947839E-3"/>
   </r>
   <r>
-    <s v="Missouri"/>
+    <x v="25"/>
     <d v="1899-12-30T00:11:12"/>
     <n v="125"/>
     <s v="RED"/>
@@ -2328,7 +2375,7 @@
     <n v="3.0409636504641932E-3"/>
   </r>
   <r>
-    <s v="Montana"/>
+    <x v="26"/>
     <d v="1899-12-30T00:10:34"/>
     <n v="90"/>
     <s v="RED"/>
@@ -2341,7 +2388,7 @@
     <n v="3.6774232599324331E-4"/>
   </r>
   <r>
-    <s v="Nebraska"/>
+    <x v="27"/>
     <d v="1899-12-30T00:10:34"/>
     <n v="129"/>
     <s v="RED"/>
@@ -2354,7 +2401,7 @@
     <n v="9.7017706677602212E-4"/>
   </r>
   <r>
-    <s v="Nevada"/>
+    <x v="28"/>
     <d v="1899-12-30T00:11:15"/>
     <n v="166"/>
     <s v="SWING"/>
@@ -2367,7 +2414,7 @@
     <n v="1.8642233091967244E-3"/>
   </r>
   <r>
-    <s v="New Hampshire"/>
+    <x v="29"/>
     <d v="1899-12-30T00:10:02"/>
     <n v="129"/>
     <s v="SWING"/>
@@ -2380,7 +2427,7 @@
     <n v="6.8717076579399242E-4"/>
   </r>
   <r>
-    <s v="New Jersey"/>
+    <x v="30"/>
     <d v="1899-12-30T00:10:15"/>
     <n v="135"/>
     <s v="BLUE"/>
@@ -2393,7 +2440,7 @@
     <n v="4.835662611982856E-3"/>
   </r>
   <r>
-    <s v="New Mexico"/>
+    <x v="31"/>
     <d v="1899-12-30T00:11:01"/>
     <n v="93"/>
     <s v="SWING"/>
@@ -2406,7 +2453,7 @@
     <n v="7.8057251921436887E-4"/>
   </r>
   <r>
-    <s v="New York"/>
+    <x v="32"/>
     <d v="1899-12-30T00:10:18"/>
     <n v="148"/>
     <s v="BLUE"/>
@@ -2419,7 +2466,7 @@
     <n v="1.1706138305951979E-2"/>
   </r>
   <r>
-    <s v="North Carolina"/>
+    <x v="33"/>
     <d v="1899-12-30T00:11:07"/>
     <n v="116"/>
     <s v="SWING"/>
@@ -2432,7 +2479,7 @@
     <n v="4.5980442691783358E-3"/>
   </r>
   <r>
-    <s v="North Dakota"/>
+    <x v="34"/>
     <d v="1899-12-30T00:10:26"/>
     <n v="123"/>
     <s v="RED"/>
@@ -2445,7 +2492,7 @@
     <n v="3.5813262545223161E-4"/>
   </r>
   <r>
-    <s v="Ohio"/>
+    <x v="35"/>
     <d v="1899-12-30T00:10:31"/>
     <n v="116"/>
     <s v="SWING"/>
@@ -2458,7 +2505,7 @@
     <n v="5.4023926960399147E-3"/>
   </r>
   <r>
-    <s v="Oklahoma"/>
+    <x v="36"/>
     <d v="1899-12-30T00:11:20"/>
     <n v="126"/>
     <s v="RED"/>
@@ -2471,7 +2518,7 @@
     <n v="1.9528092140698422E-3"/>
   </r>
   <r>
-    <s v="Oregon"/>
+    <x v="37"/>
     <d v="1899-12-30T00:10:33"/>
     <n v="113"/>
     <s v="BLUE"/>
@@ -2484,7 +2531,7 @@
     <n v="1.7874860038376232E-3"/>
   </r>
   <r>
-    <s v="Pennsylvania"/>
+    <x v="38"/>
     <d v="1899-12-30T00:10:26"/>
     <n v="125"/>
     <s v="SWING"/>
@@ -2497,7 +2544,7 @@
     <n v="6.4267977393861232E-3"/>
   </r>
   <r>
-    <s v="Rhode Island"/>
+    <x v="39"/>
     <d v="1899-12-30T00:10:00"/>
     <n v="129"/>
     <s v="BLUE"/>
@@ -2510,7 +2557,7 @@
     <n v="5.4596902443582065E-4"/>
   </r>
   <r>
-    <s v="South Carolina"/>
+    <x v="40"/>
     <d v="1899-12-30T00:11:18"/>
     <n v="90"/>
     <s v="RED"/>
@@ -2523,7 +2570,7 @@
     <n v="1.7296798058475734E-3"/>
   </r>
   <r>
-    <s v="South Dakota"/>
+    <x v="41"/>
     <d v="1899-12-30T00:10:29"/>
     <n v="88"/>
     <s v="RED"/>
@@ -2536,7 +2583,7 @@
     <n v="2.9925446074634856E-4"/>
   </r>
   <r>
-    <s v="Tennessee"/>
+    <x v="42"/>
     <d v="1899-12-30T00:11:15"/>
     <n v="104"/>
     <s v="RED"/>
@@ -2549,7 +2596,7 @@
     <n v="2.7192075526789286E-3"/>
   </r>
   <r>
-    <s v="Texas"/>
+    <x v="43"/>
     <d v="1899-12-30T00:11:12"/>
     <n v="139"/>
     <s v="RED"/>
@@ -2562,7 +2609,7 @@
     <n v="1.4797054684457009E-2"/>
   </r>
   <r>
-    <s v="Utah"/>
+    <x v="44"/>
     <d v="1899-12-30T00:10:22"/>
     <n v="94"/>
     <s v="RED"/>
@@ -2575,7 +2622,7 @@
     <n v="1.0975413539094645E-3"/>
   </r>
   <r>
-    <s v="Vermont"/>
+    <x v="45"/>
     <d v="1899-12-30T00:10:01"/>
     <n v="106"/>
     <s v="BLUE"/>
@@ -2588,7 +2635,7 @@
     <n v="2.6735082054135136E-4"/>
   </r>
   <r>
-    <s v="Virginia"/>
+    <x v="46"/>
     <d v="1899-12-30T00:10:51"/>
     <n v="146"/>
     <s v="SWING"/>
@@ -2601,7 +2648,7 @@
     <n v="4.8542112208201258E-3"/>
   </r>
   <r>
-    <s v="Washington"/>
+    <x v="47"/>
     <d v="1899-12-30T00:10:15"/>
     <n v="141"/>
     <s v="BLUE"/>
@@ -2614,7 +2661,7 @@
     <n v="3.9564343307249847E-3"/>
   </r>
   <r>
-    <s v="West Virginia"/>
+    <x v="48"/>
     <d v="1899-12-30T00:10:55"/>
     <n v="88"/>
     <s v="RED"/>
@@ -2627,7 +2674,7 @@
     <n v="6.5679234205665103E-4"/>
   </r>
   <r>
-    <s v="Wisconsin"/>
+    <x v="49"/>
     <d v="1899-12-30T00:10:35"/>
     <n v="113"/>
     <s v="SWING"/>
@@ -2640,7 +2687,7 @@
     <n v="2.6119209508128662E-3"/>
   </r>
   <r>
-    <s v="Wyoming"/>
+    <x v="50"/>
     <d v="1899-12-30T00:10:38"/>
     <n v="89"/>
     <s v="RED"/>
@@ -2653,7 +2700,7 @@
     <n v="2.0872198365008902E-4"/>
   </r>
   <r>
-    <m/>
+    <x v="51"/>
     <m/>
     <m/>
     <m/>
@@ -2669,10 +2716,66 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:I25" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E209" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="53">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0"/>
@@ -2714,105 +2817,645 @@
     </pivotField>
     <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="1">
+  <rowFields count="2">
+    <field x="0"/>
     <field x="8"/>
   </rowFields>
-  <rowItems count="20">
+  <rowItems count="205">
     <i>
       <x/>
     </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
     <i>
       <x v="1"/>
     </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
     <i>
       <x v="2"/>
     </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
     <i>
       <x v="3"/>
     </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
     <i>
       <x v="4"/>
     </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
     <i>
       <x v="5"/>
     </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
     <i>
       <x v="6"/>
     </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
     <i>
       <x v="7"/>
     </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
     <i>
       <x v="8"/>
     </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
     <i>
       <x v="9"/>
     </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
     <i>
       <x v="10"/>
     </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
     <i>
       <x v="11"/>
     </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
     <i>
       <x v="12"/>
     </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
     <i>
       <x v="13"/>
     </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
     <i>
       <x v="14"/>
     </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
     <i>
       <x v="15"/>
     </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
     <i>
       <x v="16"/>
     </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
     <i>
       <x v="17"/>
     </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
     <i>
       <x v="18"/>
     </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colFields count="2">
-    <field x="-2"/>
+  <colFields count="1">
     <field x="9"/>
   </colFields>
-  <colItems count="8">
+  <colItems count="4">
     <i>
       <x/>
-      <x/>
-    </i>
-    <i r="1">
+    </i>
+    <i>
       <x v="1"/>
     </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="1">
+    <i>
       <x v="2"/>
     </i>
     <i t="grand">
       <x/>
     </i>
-    <i t="grand" i="1">
-      <x/>
-    </i>
   </colItems>
-  <dataFields count="2">
-    <dataField name="Count of state2" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  <dataFields count="1">
     <dataField name="Sum of weight" fld="10" baseField="8" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -3113,8 +3756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K154"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3154,7 +3797,7 @@
         <v>72</v>
       </c>
       <c r="K1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -8829,18 +9472,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I25"/>
+  <dimension ref="A3:E209"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="3" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="19.5703125" customWidth="1"/>
     <col min="9" max="9" width="18.85546875" customWidth="1"/>
@@ -8852,626 +9494,3514 @@
     <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>147</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H4" t="s">
-        <v>148</v>
-      </c>
-      <c r="I4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5.6032323304596584E-3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3.7354882203064388E-3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.8677441101532194E-3</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1.1206464660919317E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.8677441101532194E-3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1.8677441101532194E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="4">
+        <v>5.6032323304596584E-3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>5.6032323304596584E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3.7354882203064388E-3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3.7354882203064388E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="4">
+        <v>9.409291451392593E-4</v>
+      </c>
+      <c r="C9" s="4">
+        <v>6.2728609675950623E-4</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3.1364304837975312E-4</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.8818582902785188E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9.409291451392593E-4</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>9.409291451392593E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3.1364304837975312E-4</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3.1364304837975312E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>6.2728609675950623E-4</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>6.2728609675950623E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="B13" s="4">
+        <v>1.1202271461748287E-2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>7.468180974498858E-3</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3.734090487249429E-3</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2.2404542923496577E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
+      <c r="B14" s="4">
+        <v>1.1202271461748287E-2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1.1202271461748287E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>7.468180974498858E-3</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>7.468180974498858E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3.734090487249429E-3</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3.734090487249429E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2.7515420878584068E-3</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1.8343613919056046E-3</v>
+      </c>
+      <c r="D17" s="4">
+        <v>9.171806959528023E-4</v>
+      </c>
+      <c r="E17" s="4">
+        <v>5.5030841757168136E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>9.171806959528023E-4</v>
+      </c>
+      <c r="E18" s="4">
+        <v>9.171806959528023E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="4">
+        <v>2.7515420878584068E-3</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2.7515420878584068E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1.8343613919056046E-3</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1.8343613919056046E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="4">
+        <v>6.6652370877521641E-2</v>
+      </c>
+      <c r="C21" s="4">
+        <v>4.4434913918347758E-2</v>
+      </c>
+      <c r="D21" s="4">
+        <v>2.2217456959173879E-2</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.13330474175504328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="4">
+        <v>6.6652370877521641E-2</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>6.6652370877521641E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2.2217456959173879E-2</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2.2217456959173879E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
+        <v>4.4434913918347758E-2</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>4.4434913918347758E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1.0114836636665016E-2</v>
+      </c>
+      <c r="C25" s="4">
+        <v>6.7432244244433441E-3</v>
+      </c>
+      <c r="D25" s="4">
+        <v>3.3716122122216721E-3</v>
+      </c>
+      <c r="E25" s="4">
+        <v>2.0229673273330032E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>3.3716122122216721E-3</v>
+      </c>
+      <c r="E26" s="4">
+        <v>3.3716122122216721E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1.0114836636665016E-2</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1.0114836636665016E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4">
+        <v>6.7432244244433441E-3</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>6.7432244244433441E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="4">
+        <v>5.297548033611924E-3</v>
+      </c>
+      <c r="C29" s="4">
+        <v>3.5316986890746162E-3</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1.7658493445373081E-3</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1.0595096067223848E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="4">
+        <v>5.297548033611924E-3</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>5.297548033611924E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4">
+        <v>3.5316986890746162E-3</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>3.5316986890746162E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1.7658493445373081E-3</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1.7658493445373081E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1.4420113866686218E-3</v>
+      </c>
+      <c r="C33" s="4">
+        <v>9.6134092444574801E-4</v>
+      </c>
+      <c r="D33" s="4">
+        <v>4.8067046222287401E-4</v>
+      </c>
+      <c r="E33" s="4">
+        <v>2.884022773337244E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4">
+        <v>4.8067046222287401E-4</v>
+      </c>
+      <c r="E34" s="4">
+        <v>4.8067046222287401E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1.4420113866686218E-3</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1.4420113866686218E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0</v>
+      </c>
+      <c r="C36" s="4">
+        <v>9.6134092444574801E-4</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>9.6134092444574801E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="4">
+        <v>9.0547817126400518E-4</v>
+      </c>
+      <c r="C37" s="4">
+        <v>6.0365211417600349E-4</v>
+      </c>
+      <c r="D37" s="4">
+        <v>3.0182605708800175E-4</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1.8109563425280104E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="4">
+        <v>9.0547817126400518E-4</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>9.0547817126400518E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4">
+        <v>6.0365211417600349E-4</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>6.0365211417600349E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0</v>
+      </c>
+      <c r="D40" s="4">
+        <v>3.0182605708800175E-4</v>
+      </c>
+      <c r="E40" s="4">
+        <v>3.0182605708800175E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="4">
+        <v>2.9984702173537353E-2</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1.9989801449024902E-2</v>
+      </c>
+      <c r="D41" s="4">
+        <v>9.994900724512451E-3</v>
+      </c>
+      <c r="E41" s="4">
+        <v>5.9969404347074706E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="4">
+        <v>2.9984702173537353E-2</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>2.9984702173537353E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0</v>
+      </c>
+      <c r="D43" s="4">
+        <v>9.994900724512451E-3</v>
+      </c>
+      <c r="E43" s="4">
+        <v>9.994900724512451E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1.9989801449024902E-2</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1.9989801449024902E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="4">
+        <v>1.7494978532963428E-2</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1.1663319021975619E-2</v>
+      </c>
+      <c r="D45" s="4">
+        <v>5.8316595109878097E-3</v>
+      </c>
+      <c r="E45" s="4">
+        <v>3.4989957065926856E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1.1663319021975619E-2</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1.1663319021975619E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="4">
+        <v>1.7494978532963428E-2</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1.7494978532963428E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0</v>
+      </c>
+      <c r="D48" s="4">
+        <v>5.8316595109878097E-3</v>
+      </c>
+      <c r="E48" s="4">
+        <v>5.8316595109878097E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="4">
+        <v>2.5261306448783358E-3</v>
+      </c>
+      <c r="C49" s="4">
+        <v>1.6840870965855572E-3</v>
+      </c>
+      <c r="D49" s="4">
+        <v>8.4204354829277859E-4</v>
+      </c>
+      <c r="E49" s="4">
+        <v>5.0522612897566715E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="4">
+        <v>2.5261306448783358E-3</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>2.5261306448783358E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0</v>
+      </c>
+      <c r="D51" s="4">
+        <v>8.4204354829277859E-4</v>
+      </c>
+      <c r="E51" s="4">
+        <v>8.4204354829277859E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0</v>
+      </c>
+      <c r="C52" s="4">
+        <v>1.6840870965855572E-3</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <v>1.6840870965855572E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="4">
+        <v>1.5573183143165713E-3</v>
+      </c>
+      <c r="C53" s="4">
+        <v>1.0382122095443809E-3</v>
+      </c>
+      <c r="D53" s="4">
+        <v>5.1910610477219046E-4</v>
+      </c>
+      <c r="E53" s="4">
+        <v>3.114636628633143E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="4">
+        <v>1.5573183143165713E-3</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1.5573183143165713E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0</v>
+      </c>
+      <c r="C55" s="4">
+        <v>1.0382122095443809E-3</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1.0382122095443809E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="4">
+        <v>0</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0</v>
+      </c>
+      <c r="D56" s="4">
+        <v>5.1910610477219046E-4</v>
+      </c>
+      <c r="E56" s="4">
+        <v>5.1910610477219046E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="4">
+        <v>2.5043755201505636E-2</v>
+      </c>
+      <c r="C57" s="4">
+        <v>1.6695836801003758E-2</v>
+      </c>
+      <c r="D57" s="4">
+        <v>8.3479184005018792E-3</v>
+      </c>
+      <c r="E57" s="4">
+        <v>5.0087510403011272E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0</v>
+      </c>
+      <c r="C58" s="4">
+        <v>1.6695836801003758E-2</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1.6695836801003758E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="4">
+        <v>2.5043755201505636E-2</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4">
+        <v>2.5043755201505636E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="4">
+        <v>0</v>
+      </c>
+      <c r="C60" s="4">
+        <v>0</v>
+      </c>
+      <c r="D60" s="4">
+        <v>8.3479184005018792E-3</v>
+      </c>
+      <c r="E60" s="4">
+        <v>8.3479184005018792E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" s="4">
+        <v>8.0136817601315757E-3</v>
+      </c>
+      <c r="C61" s="4">
+        <v>5.3424545067543841E-3</v>
+      </c>
+      <c r="D61" s="4">
+        <v>2.671227253377192E-3</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1.6027363520263151E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="4">
+        <v>0</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0</v>
+      </c>
+      <c r="D62" s="4">
+        <v>2.671227253377192E-3</v>
+      </c>
+      <c r="E62" s="4">
+        <v>2.671227253377192E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="4">
+        <v>8.0136817601315757E-3</v>
+      </c>
+      <c r="C63" s="4">
+        <v>0</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+      <c r="E63" s="4">
+        <v>8.0136817601315757E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="4">
+        <v>0</v>
+      </c>
+      <c r="C64" s="4">
+        <v>5.3424545067543841E-3</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
+      <c r="E64" s="4">
+        <v>5.3424545067543841E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="4">
+        <v>4.4033649255360704E-3</v>
+      </c>
+      <c r="C65" s="4">
+        <v>2.9355766170240469E-3</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1.4677883085120235E-3</v>
+      </c>
+      <c r="E65" s="4">
+        <v>8.8067298510721408E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="4">
+        <v>4.4033649255360704E-3</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+      <c r="E66" s="4">
+        <v>4.4033649255360704E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="4">
+        <v>0</v>
+      </c>
+      <c r="C67" s="4">
+        <v>2.9355766170240469E-3</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+      <c r="E67" s="4">
+        <v>2.9355766170240469E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="4">
+        <v>0</v>
+      </c>
+      <c r="C68" s="4">
+        <v>0</v>
+      </c>
+      <c r="D68" s="4">
+        <v>1.4677883085120235E-3</v>
+      </c>
+      <c r="E68" s="4">
+        <v>1.4677883085120235E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" s="4">
+        <v>6.7792169361584609E-3</v>
+      </c>
+      <c r="C69" s="4">
+        <v>4.5194779574389736E-3</v>
+      </c>
+      <c r="D69" s="4">
+        <v>2.2597389787194868E-3</v>
+      </c>
+      <c r="E69" s="4">
+        <v>1.3558433872316922E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="4">
+        <v>0</v>
+      </c>
+      <c r="C70" s="4">
+        <v>0</v>
+      </c>
+      <c r="D70" s="4">
+        <v>2.2597389787194868E-3</v>
+      </c>
+      <c r="E70" s="4">
+        <v>2.2597389787194868E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="4">
+        <v>6.7792169361584609E-3</v>
+      </c>
+      <c r="C71" s="4">
+        <v>0</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0</v>
+      </c>
+      <c r="E71" s="4">
+        <v>6.7792169361584609E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="4">
+        <v>0</v>
+      </c>
+      <c r="C72" s="4">
+        <v>4.5194779574389736E-3</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0</v>
+      </c>
+      <c r="E72" s="4">
+        <v>4.5194779574389736E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B73" s="4">
+        <v>6.421834769517046E-3</v>
+      </c>
+      <c r="C73" s="4">
+        <v>4.2812231796780309E-3</v>
+      </c>
+      <c r="D73" s="4">
+        <v>2.1406115898390155E-3</v>
+      </c>
+      <c r="E73" s="4">
+        <v>1.2843669539034092E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" s="4">
+        <v>0</v>
+      </c>
+      <c r="C74" s="4">
+        <v>4.2812231796780309E-3</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0</v>
+      </c>
+      <c r="E74" s="4">
+        <v>4.2812231796780309E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" s="4">
+        <v>6.421834769517046E-3</v>
+      </c>
+      <c r="C75" s="4">
+        <v>0</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0</v>
+      </c>
+      <c r="E75" s="4">
+        <v>6.421834769517046E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="4">
+        <v>0</v>
+      </c>
+      <c r="C76" s="4">
+        <v>0</v>
+      </c>
+      <c r="D76" s="4">
+        <v>2.1406115898390155E-3</v>
+      </c>
+      <c r="E76" s="4">
+        <v>2.1406115898390155E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77" s="4">
+        <v>5.9203510838424797E-3</v>
+      </c>
+      <c r="C77" s="4">
+        <v>3.9469007225616535E-3</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1.9734503612808267E-3</v>
+      </c>
+      <c r="E77" s="4">
+        <v>1.1840702167684961E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B78" s="4">
+        <v>5.9203510838424797E-3</v>
+      </c>
+      <c r="C78" s="4">
+        <v>0</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0</v>
+      </c>
+      <c r="E78" s="4">
+        <v>5.9203510838424797E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="4">
+        <v>0</v>
+      </c>
+      <c r="C79" s="4">
+        <v>0</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1.9734503612808267E-3</v>
+      </c>
+      <c r="E79" s="4">
+        <v>1.9734503612808267E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="4">
+        <v>0</v>
+      </c>
+      <c r="C80" s="4">
+        <v>3.9469007225616535E-3</v>
+      </c>
+      <c r="D80" s="4">
+        <v>0</v>
+      </c>
+      <c r="E80" s="4">
+        <v>3.9469007225616535E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B81" s="4">
+        <v>1.4756058957028624E-3</v>
+      </c>
+      <c r="C81" s="4">
+        <v>9.8373726380190821E-4</v>
+      </c>
+      <c r="D81" s="4">
+        <v>4.918686319009541E-4</v>
+      </c>
+      <c r="E81" s="4">
+        <v>2.9512117914057244E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="4">
+        <v>1.4756058957028624E-3</v>
+      </c>
+      <c r="C82" s="4">
+        <v>0</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0</v>
+      </c>
+      <c r="E82" s="4">
+        <v>1.4756058957028624E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="4">
+        <v>0</v>
+      </c>
+      <c r="C83" s="4">
+        <v>0</v>
+      </c>
+      <c r="D83" s="4">
+        <v>4.918686319009541E-4</v>
+      </c>
+      <c r="E83" s="4">
+        <v>4.918686319009541E-4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="4">
+        <v>0</v>
+      </c>
+      <c r="C84" s="4">
+        <v>9.8373726380190821E-4</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0</v>
+      </c>
+      <c r="E84" s="4">
+        <v>9.8373726380190821E-4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B85" s="4">
+        <v>9.0203647418040222E-3</v>
+      </c>
+      <c r="C85" s="4">
+        <v>6.0135764945360151E-3</v>
+      </c>
+      <c r="D85" s="4">
+        <v>3.0067882472680075E-3</v>
+      </c>
+      <c r="E85" s="4">
+        <v>1.8040729483608044E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86" s="4">
+        <v>0</v>
+      </c>
+      <c r="C86" s="4">
+        <v>6.0135764945360151E-3</v>
+      </c>
+      <c r="D86" s="4">
+        <v>0</v>
+      </c>
+      <c r="E86" s="4">
+        <v>6.0135764945360151E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B87" s="4">
+        <v>9.0203647418040222E-3</v>
+      </c>
+      <c r="C87" s="4">
+        <v>0</v>
+      </c>
+      <c r="D87" s="4">
+        <v>0</v>
+      </c>
+      <c r="E87" s="4">
+        <v>9.0203647418040222E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="4">
+        <v>0</v>
+      </c>
+      <c r="C88" s="4">
+        <v>0</v>
+      </c>
+      <c r="D88" s="4">
+        <v>3.0067882472680075E-3</v>
+      </c>
+      <c r="E88" s="4">
+        <v>3.0067882472680075E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B89" s="4">
+        <v>1.236478483068206E-2</v>
+      </c>
+      <c r="C89" s="4">
+        <v>8.2431898871213726E-3</v>
+      </c>
+      <c r="D89" s="4">
+        <v>4.1215949435606863E-3</v>
+      </c>
+      <c r="E89" s="4">
+        <v>2.472956966136412E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B90" s="4">
+        <v>1.236478483068206E-2</v>
+      </c>
+      <c r="C90" s="4">
+        <v>0</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0</v>
+      </c>
+      <c r="E90" s="4">
+        <v>1.236478483068206E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B91" s="4">
+        <v>0</v>
+      </c>
+      <c r="C91" s="4">
+        <v>8.2431898871213726E-3</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0</v>
+      </c>
+      <c r="E91" s="4">
+        <v>8.2431898871213726E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" s="4">
+        <v>0</v>
+      </c>
+      <c r="C92" s="4">
+        <v>0</v>
+      </c>
+      <c r="D92" s="4">
+        <v>4.1215949435606863E-3</v>
+      </c>
+      <c r="E92" s="4">
+        <v>4.1215949435606863E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B93" s="4">
+        <v>1.5533602146314092E-2</v>
+      </c>
+      <c r="C93" s="4">
+        <v>1.0355734764209394E-2</v>
+      </c>
+      <c r="D93" s="4">
+        <v>5.1778673821046969E-3</v>
+      </c>
+      <c r="E93" s="4">
+        <v>3.106720429262818E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="4">
+        <v>0</v>
+      </c>
+      <c r="C94" s="4">
+        <v>1.0355734764209394E-2</v>
+      </c>
+      <c r="D94" s="4">
+        <v>0</v>
+      </c>
+      <c r="E94" s="4">
+        <v>1.0355734764209394E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="4">
+        <v>0</v>
+      </c>
+      <c r="C95" s="4">
+        <v>0</v>
+      </c>
+      <c r="D95" s="4">
+        <v>5.1778673821046969E-3</v>
+      </c>
+      <c r="E95" s="4">
+        <v>5.1778673821046969E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="4">
+        <v>1.5533602146314092E-2</v>
+      </c>
+      <c r="C96" s="4">
+        <v>0</v>
+      </c>
+      <c r="D96" s="4">
+        <v>0</v>
+      </c>
+      <c r="E96" s="4">
+        <v>1.5533602146314092E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" s="4">
+        <v>8.9013191044328369E-3</v>
+      </c>
+      <c r="C97" s="4">
+        <v>5.9342127362885582E-3</v>
+      </c>
+      <c r="D97" s="4">
+        <v>2.9671063681442791E-3</v>
+      </c>
+      <c r="E97" s="4">
+        <v>1.7802638208865674E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98" s="4">
+        <v>8.9013191044328369E-3</v>
+      </c>
+      <c r="C98" s="4">
+        <v>0</v>
+      </c>
+      <c r="D98" s="4">
+        <v>0</v>
+      </c>
+      <c r="E98" s="4">
+        <v>8.9013191044328369E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="4">
+        <v>0</v>
+      </c>
+      <c r="C99" s="4">
+        <v>0</v>
+      </c>
+      <c r="D99" s="4">
+        <v>2.9671063681442791E-3</v>
+      </c>
+      <c r="E99" s="4">
+        <v>2.9671063681442791E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="4">
+        <v>0</v>
+      </c>
+      <c r="C100" s="4">
+        <v>5.9342127362885582E-3</v>
+      </c>
+      <c r="D100" s="4">
+        <v>0</v>
+      </c>
+      <c r="E100" s="4">
+        <v>5.9342127362885582E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B101" s="4">
+        <v>4.081413905684352E-3</v>
+      </c>
+      <c r="C101" s="4">
+        <v>2.7209426037895679E-3</v>
+      </c>
+      <c r="D101" s="4">
+        <v>1.3604713018947839E-3</v>
+      </c>
+      <c r="E101" s="4">
+        <v>8.1628278113687041E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="4">
+        <v>0</v>
+      </c>
+      <c r="C102" s="4">
+        <v>2.7209426037895679E-3</v>
+      </c>
+      <c r="D102" s="4">
+        <v>0</v>
+      </c>
+      <c r="E102" s="4">
+        <v>2.7209426037895679E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" s="4">
+        <v>0</v>
+      </c>
+      <c r="C103" s="4">
+        <v>0</v>
+      </c>
+      <c r="D103" s="4">
+        <v>1.3604713018947839E-3</v>
+      </c>
+      <c r="E103" s="4">
+        <v>1.3604713018947839E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="4">
+        <v>4.081413905684352E-3</v>
+      </c>
+      <c r="C104" s="4">
+        <v>0</v>
+      </c>
+      <c r="D104" s="4">
+        <v>0</v>
+      </c>
+      <c r="E104" s="4">
+        <v>4.081413905684352E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B105" s="4">
+        <v>9.1228909513925791E-3</v>
+      </c>
+      <c r="C105" s="4">
+        <v>6.0819273009283864E-3</v>
+      </c>
+      <c r="D105" s="4">
+        <v>3.0409636504641932E-3</v>
+      </c>
+      <c r="E105" s="4">
+        <v>1.8245781902785158E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" s="4">
+        <v>0</v>
+      </c>
+      <c r="C106" s="4">
+        <v>6.0819273009283864E-3</v>
+      </c>
+      <c r="D106" s="4">
+        <v>0</v>
+      </c>
+      <c r="E106" s="4">
+        <v>6.0819273009283864E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" s="4">
+        <v>0</v>
+      </c>
+      <c r="C107" s="4">
+        <v>0</v>
+      </c>
+      <c r="D107" s="4">
+        <v>3.0409636504641932E-3</v>
+      </c>
+      <c r="E107" s="4">
+        <v>3.0409636504641932E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" s="4">
+        <v>9.1228909513925791E-3</v>
+      </c>
+      <c r="C108" s="4">
+        <v>0</v>
+      </c>
+      <c r="D108" s="4">
+        <v>0</v>
+      </c>
+      <c r="E108" s="4">
+        <v>9.1228909513925791E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B109" s="4">
+        <v>1.1032269779797299E-3</v>
+      </c>
+      <c r="C109" s="4">
+        <v>7.3548465198648662E-4</v>
+      </c>
+      <c r="D109" s="4">
+        <v>3.6774232599324331E-4</v>
+      </c>
+      <c r="E109" s="4">
+        <v>2.2064539559594597E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="B110" s="4">
+        <v>0</v>
+      </c>
+      <c r="C110" s="4">
         <v>7.3548465198648662E-4</v>
       </c>
-      <c r="G6" s="4">
+      <c r="D110" s="4">
+        <v>0</v>
+      </c>
+      <c r="E110" s="4">
+        <v>7.3548465198648662E-4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" s="4">
+        <v>1.1032269779797299E-3</v>
+      </c>
+      <c r="C111" s="4">
+        <v>0</v>
+      </c>
+      <c r="D111" s="4">
+        <v>0</v>
+      </c>
+      <c r="E111" s="4">
+        <v>1.1032269779797299E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B112" s="4">
+        <v>0</v>
+      </c>
+      <c r="C112" s="4">
+        <v>0</v>
+      </c>
+      <c r="D112" s="4">
+        <v>3.6774232599324331E-4</v>
+      </c>
+      <c r="E112" s="4">
+        <v>3.6774232599324331E-4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B113" s="4">
+        <v>2.9105312003280663E-3</v>
+      </c>
+      <c r="C113" s="4">
+        <v>1.9403541335520442E-3</v>
+      </c>
+      <c r="D113" s="4">
+        <v>9.7017706677602212E-4</v>
+      </c>
+      <c r="E113" s="4">
+        <v>5.8210624006561325E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" s="4">
+        <v>2.9105312003280663E-3</v>
+      </c>
+      <c r="C114" s="4">
+        <v>0</v>
+      </c>
+      <c r="D114" s="4">
+        <v>0</v>
+      </c>
+      <c r="E114" s="4">
+        <v>2.9105312003280663E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" s="4">
+        <v>0</v>
+      </c>
+      <c r="C115" s="4">
+        <v>0</v>
+      </c>
+      <c r="D115" s="4">
+        <v>9.7017706677602212E-4</v>
+      </c>
+      <c r="E115" s="4">
+        <v>9.7017706677602212E-4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" s="4">
+        <v>0</v>
+      </c>
+      <c r="C116" s="4">
+        <v>1.9403541335520442E-3</v>
+      </c>
+      <c r="D116" s="4">
+        <v>0</v>
+      </c>
+      <c r="E116" s="4">
+        <v>1.9403541335520442E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="4">
+        <v>5.5926699275901728E-3</v>
+      </c>
+      <c r="C117" s="4">
+        <v>3.7284466183934487E-3</v>
+      </c>
+      <c r="D117" s="4">
+        <v>1.8642233091967244E-3</v>
+      </c>
+      <c r="E117" s="4">
+        <v>1.1185339855180346E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" s="4">
+        <v>5.5926699275901728E-3</v>
+      </c>
+      <c r="C118" s="4">
+        <v>0</v>
+      </c>
+      <c r="D118" s="4">
+        <v>0</v>
+      </c>
+      <c r="E118" s="4">
+        <v>5.5926699275901728E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B119" s="4">
+        <v>0</v>
+      </c>
+      <c r="C119" s="4">
+        <v>3.7284466183934487E-3</v>
+      </c>
+      <c r="D119" s="4">
+        <v>0</v>
+      </c>
+      <c r="E119" s="4">
+        <v>3.7284466183934487E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" s="4">
+        <v>0</v>
+      </c>
+      <c r="C120" s="4">
+        <v>0</v>
+      </c>
+      <c r="D120" s="4">
+        <v>1.8642233091967244E-3</v>
+      </c>
+      <c r="E120" s="4">
+        <v>1.8642233091967244E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B121" s="4">
+        <v>2.0615122973819773E-3</v>
+      </c>
+      <c r="C121" s="4">
+        <v>1.3743415315879848E-3</v>
+      </c>
+      <c r="D121" s="4">
+        <v>6.8717076579399242E-4</v>
+      </c>
+      <c r="E121" s="4">
+        <v>4.1230245947639545E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B122" s="4">
+        <v>0</v>
+      </c>
+      <c r="C122" s="4">
+        <v>0</v>
+      </c>
+      <c r="D122" s="4">
+        <v>6.8717076579399242E-4</v>
+      </c>
+      <c r="E122" s="4">
+        <v>6.8717076579399242E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123" s="4">
+        <v>2.0615122973819773E-3</v>
+      </c>
+      <c r="C123" s="4">
+        <v>0</v>
+      </c>
+      <c r="D123" s="4">
+        <v>0</v>
+      </c>
+      <c r="E123" s="4">
+        <v>2.0615122973819773E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="4">
+        <v>0</v>
+      </c>
+      <c r="C124" s="4">
+        <v>1.3743415315879848E-3</v>
+      </c>
+      <c r="D124" s="4">
+        <v>0</v>
+      </c>
+      <c r="E124" s="4">
+        <v>1.3743415315879848E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B125" s="4">
+        <v>1.4506987835948568E-2</v>
+      </c>
+      <c r="C125" s="4">
+        <v>9.671325223965712E-3</v>
+      </c>
+      <c r="D125" s="4">
+        <v>4.835662611982856E-3</v>
+      </c>
+      <c r="E125" s="4">
+        <v>2.9013975671897136E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126" s="4">
+        <v>0</v>
+      </c>
+      <c r="C126" s="4">
+        <v>0</v>
+      </c>
+      <c r="D126" s="4">
+        <v>4.835662611982856E-3</v>
+      </c>
+      <c r="E126" s="4">
+        <v>4.835662611982856E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" s="4">
+        <v>1.4506987835948568E-2</v>
+      </c>
+      <c r="C127" s="4">
+        <v>0</v>
+      </c>
+      <c r="D127" s="4">
+        <v>0</v>
+      </c>
+      <c r="E127" s="4">
+        <v>1.4506987835948568E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B128" s="4">
+        <v>0</v>
+      </c>
+      <c r="C128" s="4">
+        <v>9.671325223965712E-3</v>
+      </c>
+      <c r="D128" s="4">
+        <v>0</v>
+      </c>
+      <c r="E128" s="4">
+        <v>9.671325223965712E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B129" s="4">
+        <v>2.3417175576431067E-3</v>
+      </c>
+      <c r="C129" s="4">
+        <v>1.5611450384287377E-3</v>
+      </c>
+      <c r="D129" s="4">
+        <v>7.8057251921436887E-4</v>
+      </c>
+      <c r="E129" s="4">
+        <v>4.6834351152862134E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" s="4">
+        <v>2.3417175576431067E-3</v>
+      </c>
+      <c r="C130" s="4">
+        <v>0</v>
+      </c>
+      <c r="D130" s="4">
+        <v>0</v>
+      </c>
+      <c r="E130" s="4">
+        <v>2.3417175576431067E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B131" s="4">
+        <v>0</v>
+      </c>
+      <c r="C131" s="4">
+        <v>0</v>
+      </c>
+      <c r="D131" s="4">
+        <v>7.8057251921436887E-4</v>
+      </c>
+      <c r="E131" s="4">
+        <v>7.8057251921436887E-4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" s="4">
+        <v>0</v>
+      </c>
+      <c r="C132" s="4">
+        <v>1.5611450384287377E-3</v>
+      </c>
+      <c r="D132" s="4">
+        <v>0</v>
+      </c>
+      <c r="E132" s="4">
+        <v>1.5611450384287377E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B133" s="4">
+        <v>3.5118414917855938E-2</v>
+      </c>
+      <c r="C133" s="4">
+        <v>2.3412276611903957E-2</v>
+      </c>
+      <c r="D133" s="4">
+        <v>1.1706138305951979E-2</v>
+      </c>
+      <c r="E133" s="4">
+        <v>7.0236829835711875E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B134" s="4">
+        <v>3.5118414917855938E-2</v>
+      </c>
+      <c r="C134" s="4">
+        <v>0</v>
+      </c>
+      <c r="D134" s="4">
+        <v>0</v>
+      </c>
+      <c r="E134" s="4">
+        <v>3.5118414917855938E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135" s="4">
+        <v>0</v>
+      </c>
+      <c r="C135" s="4">
+        <v>2.3412276611903957E-2</v>
+      </c>
+      <c r="D135" s="4">
+        <v>0</v>
+      </c>
+      <c r="E135" s="4">
+        <v>2.3412276611903957E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136" s="4">
+        <v>0</v>
+      </c>
+      <c r="C136" s="4">
+        <v>0</v>
+      </c>
+      <c r="D136" s="4">
+        <v>1.1706138305951979E-2</v>
+      </c>
+      <c r="E136" s="4">
+        <v>1.1706138305951979E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B137" s="4">
+        <v>1.3794132807535006E-2</v>
+      </c>
+      <c r="C137" s="4">
+        <v>9.1960885383566716E-3</v>
+      </c>
+      <c r="D137" s="4">
+        <v>4.5980442691783358E-3</v>
+      </c>
+      <c r="E137" s="4">
+        <v>2.7588265615070016E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" s="4">
+        <v>0</v>
+      </c>
+      <c r="C138" s="4">
+        <v>9.1960885383566716E-3</v>
+      </c>
+      <c r="D138" s="4">
+        <v>0</v>
+      </c>
+      <c r="E138" s="4">
+        <v>9.1960885383566716E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B139" s="4">
+        <v>0</v>
+      </c>
+      <c r="C139" s="4">
+        <v>0</v>
+      </c>
+      <c r="D139" s="4">
+        <v>4.5980442691783358E-3</v>
+      </c>
+      <c r="E139" s="4">
+        <v>4.5980442691783358E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B140" s="4">
+        <v>1.3794132807535006E-2</v>
+      </c>
+      <c r="C140" s="4">
+        <v>0</v>
+      </c>
+      <c r="D140" s="4">
+        <v>0</v>
+      </c>
+      <c r="E140" s="4">
+        <v>1.3794132807535006E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B141" s="4">
+        <v>1.0743978763566948E-3</v>
+      </c>
+      <c r="C141" s="4">
+        <v>7.1626525090446322E-4</v>
+      </c>
+      <c r="D141" s="4">
+        <v>3.5813262545223161E-4</v>
+      </c>
+      <c r="E141" s="4">
+        <v>2.1487957527133897E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" s="4">
+        <v>1.0743978763566948E-3</v>
+      </c>
+      <c r="C142" s="4">
+        <v>0</v>
+      </c>
+      <c r="D142" s="4">
+        <v>0</v>
+      </c>
+      <c r="E142" s="4">
+        <v>1.0743978763566948E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" s="4">
+        <v>0</v>
+      </c>
+      <c r="C143" s="4">
+        <v>0</v>
+      </c>
+      <c r="D143" s="4">
+        <v>3.5813262545223161E-4</v>
+      </c>
+      <c r="E143" s="4">
+        <v>3.5813262545223161E-4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" s="4">
+        <v>0</v>
+      </c>
+      <c r="C144" s="4">
+        <v>7.1626525090446322E-4</v>
+      </c>
+      <c r="D144" s="4">
+        <v>0</v>
+      </c>
+      <c r="E144" s="4">
+        <v>7.1626525090446322E-4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B145" s="4">
+        <v>1.6207178088119743E-2</v>
+      </c>
+      <c r="C145" s="4">
+        <v>1.0804785392079829E-2</v>
+      </c>
+      <c r="D145" s="4">
+        <v>5.4023926960399147E-3</v>
+      </c>
+      <c r="E145" s="4">
+        <v>3.2414356176239487E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" s="4">
+        <v>1.6207178088119743E-2</v>
+      </c>
+      <c r="C146" s="4">
+        <v>0</v>
+      </c>
+      <c r="D146" s="4">
+        <v>0</v>
+      </c>
+      <c r="E146" s="4">
+        <v>1.6207178088119743E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147" s="4">
+        <v>0</v>
+      </c>
+      <c r="C147" s="4">
+        <v>0</v>
+      </c>
+      <c r="D147" s="4">
+        <v>5.4023926960399147E-3</v>
+      </c>
+      <c r="E147" s="4">
+        <v>5.4023926960399147E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" s="4">
+        <v>0</v>
+      </c>
+      <c r="C148" s="4">
+        <v>1.0804785392079829E-2</v>
+      </c>
+      <c r="D148" s="4">
+        <v>0</v>
+      </c>
+      <c r="E148" s="4">
+        <v>1.0804785392079829E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B149" s="4">
+        <v>5.8584276422095254E-3</v>
+      </c>
+      <c r="C149" s="4">
+        <v>3.9056184281396843E-3</v>
+      </c>
+      <c r="D149" s="4">
         <v>1.9528092140698422E-3</v>
       </c>
-      <c r="H6" s="4">
-        <v>2</v>
-      </c>
-      <c r="I6" s="4">
-        <v>2.6882938660563287E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>5.5926699275901728E-3</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4">
-        <v>5.5926699275901728E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="E149" s="4">
+        <v>1.1716855284419053E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B150" s="4">
+        <v>0</v>
+      </c>
+      <c r="C150" s="4">
+        <v>0</v>
+      </c>
+      <c r="D150" s="4">
+        <v>1.9528092140698422E-3</v>
+      </c>
+      <c r="E150" s="4">
+        <v>1.9528092140698422E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" s="4">
+        <v>5.8584276422095254E-3</v>
+      </c>
+      <c r="C151" s="4">
+        <v>0</v>
+      </c>
+      <c r="D151" s="4">
+        <v>0</v>
+      </c>
+      <c r="E151" s="4">
+        <v>5.8584276422095254E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B152" s="4">
+        <v>0</v>
+      </c>
+      <c r="C152" s="4">
+        <v>3.9056184281396843E-3</v>
+      </c>
+      <c r="D152" s="4">
+        <v>0</v>
+      </c>
+      <c r="E152" s="4">
+        <v>3.9056184281396843E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B153" s="4">
+        <v>5.3624580115128702E-3</v>
+      </c>
+      <c r="C153" s="4">
+        <v>3.5749720076752463E-3</v>
+      </c>
+      <c r="D153" s="4">
+        <v>1.7874860038376232E-3</v>
+      </c>
+      <c r="E153" s="4">
+        <v>1.0724916023025739E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B154" s="4">
+        <v>0</v>
+      </c>
+      <c r="C154" s="4">
+        <v>0</v>
+      </c>
+      <c r="D154" s="4">
+        <v>1.7874860038376232E-3</v>
+      </c>
+      <c r="E154" s="4">
+        <v>1.7874860038376232E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B155" s="4">
+        <v>0</v>
+      </c>
+      <c r="C155" s="4">
+        <v>3.5749720076752463E-3</v>
+      </c>
+      <c r="D155" s="4">
+        <v>0</v>
+      </c>
+      <c r="E155" s="4">
+        <v>3.5749720076752463E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" s="4">
+        <v>5.3624580115128702E-3</v>
+      </c>
+      <c r="C156" s="4">
+        <v>0</v>
+      </c>
+      <c r="D156" s="4">
+        <v>0</v>
+      </c>
+      <c r="E156" s="4">
+        <v>5.3624580115128702E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B157" s="4">
+        <v>1.928039321815837E-2</v>
+      </c>
+      <c r="C157" s="4">
+        <v>1.2853595478772246E-2</v>
+      </c>
+      <c r="D157" s="4">
+        <v>6.4267977393861232E-3</v>
+      </c>
+      <c r="E157" s="4">
+        <v>3.8560786436316739E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B158" s="4">
+        <v>1.928039321815837E-2</v>
+      </c>
+      <c r="C158" s="4">
+        <v>0</v>
+      </c>
+      <c r="D158" s="4">
+        <v>0</v>
+      </c>
+      <c r="E158" s="4">
+        <v>1.928039321815837E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B159" s="4">
+        <v>0</v>
+      </c>
+      <c r="C159" s="4">
+        <v>0</v>
+      </c>
+      <c r="D159" s="4">
+        <v>6.4267977393861232E-3</v>
+      </c>
+      <c r="E159" s="4">
+        <v>6.4267977393861232E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" s="4">
+        <v>0</v>
+      </c>
+      <c r="C160" s="4">
+        <v>1.2853595478772246E-2</v>
+      </c>
+      <c r="D160" s="4">
+        <v>0</v>
+      </c>
+      <c r="E160" s="4">
+        <v>1.2853595478772246E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B161" s="4">
+        <v>1.637907073307462E-3</v>
+      </c>
+      <c r="C161" s="4">
+        <v>1.0919380488716413E-3</v>
+      </c>
+      <c r="D161" s="4">
+        <v>5.4596902443582065E-4</v>
+      </c>
+      <c r="E161" s="4">
+        <v>3.2758141466149239E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B162" s="4">
+        <v>0</v>
+      </c>
+      <c r="C162" s="4">
+        <v>0</v>
+      </c>
+      <c r="D162" s="4">
+        <v>5.4596902443582065E-4</v>
+      </c>
+      <c r="E162" s="4">
+        <v>5.4596902443582065E-4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B163" s="4">
+        <v>0</v>
+      </c>
+      <c r="C163" s="4">
+        <v>1.0919380488716413E-3</v>
+      </c>
+      <c r="D163" s="4">
+        <v>0</v>
+      </c>
+      <c r="E163" s="4">
+        <v>1.0919380488716413E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" s="4">
+        <v>1.637907073307462E-3</v>
+      </c>
+      <c r="C164" s="4">
+        <v>0</v>
+      </c>
+      <c r="D164" s="4">
+        <v>0</v>
+      </c>
+      <c r="E164" s="4">
+        <v>1.637907073307462E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B165" s="4">
+        <v>5.1890394175427203E-3</v>
+      </c>
+      <c r="C165" s="4">
+        <v>3.4593596116951468E-3</v>
+      </c>
+      <c r="D165" s="4">
+        <v>1.7296798058475734E-3</v>
+      </c>
+      <c r="E165" s="4">
+        <v>1.0378078835085441E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B166" s="4">
+        <v>0</v>
+      </c>
+      <c r="C166" s="4">
+        <v>0</v>
+      </c>
+      <c r="D166" s="4">
+        <v>1.7296798058475734E-3</v>
+      </c>
+      <c r="E166" s="4">
+        <v>1.7296798058475734E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B167" s="4">
+        <v>0</v>
+      </c>
+      <c r="C167" s="4">
+        <v>3.4593596116951468E-3</v>
+      </c>
+      <c r="D167" s="4">
+        <v>0</v>
+      </c>
+      <c r="E167" s="4">
+        <v>3.4593596116951468E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" s="4">
+        <v>5.1890394175427203E-3</v>
+      </c>
+      <c r="C168" s="4">
+        <v>0</v>
+      </c>
+      <c r="D168" s="4">
+        <v>0</v>
+      </c>
+      <c r="E168" s="4">
+        <v>5.1890394175427203E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B169" s="4">
+        <v>8.9776338223904564E-4</v>
+      </c>
+      <c r="C169" s="4">
+        <v>5.9850892149269713E-4</v>
+      </c>
+      <c r="D169" s="4">
+        <v>2.9925446074634856E-4</v>
+      </c>
+      <c r="E169" s="4">
+        <v>1.7955267644780913E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B170" s="4">
+        <v>0</v>
+      </c>
+      <c r="C170" s="4">
+        <v>5.9850892149269713E-4</v>
+      </c>
+      <c r="D170" s="4">
+        <v>0</v>
+      </c>
+      <c r="E170" s="4">
+        <v>5.9850892149269713E-4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B171" s="4">
+        <v>8.9776338223904564E-4</v>
+      </c>
+      <c r="C171" s="4">
+        <v>0</v>
+      </c>
+      <c r="D171" s="4">
+        <v>0</v>
+      </c>
+      <c r="E171" s="4">
+        <v>8.9776338223904564E-4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" s="4">
+        <v>0</v>
+      </c>
+      <c r="C172" s="4">
+        <v>0</v>
+      </c>
+      <c r="D172" s="4">
+        <v>2.9925446074634856E-4</v>
+      </c>
+      <c r="E172" s="4">
+        <v>2.9925446074634856E-4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B173" s="4">
+        <v>8.1576226580367863E-3</v>
+      </c>
+      <c r="C173" s="4">
+        <v>5.4384151053578573E-3</v>
+      </c>
+      <c r="D173" s="4">
+        <v>2.7192075526789286E-3</v>
+      </c>
+      <c r="E173" s="4">
+        <v>1.6315245316073573E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" s="4">
+        <v>8.1576226580367863E-3</v>
+      </c>
+      <c r="C174" s="4">
+        <v>0</v>
+      </c>
+      <c r="D174" s="4">
+        <v>0</v>
+      </c>
+      <c r="E174" s="4">
+        <v>8.1576226580367863E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B175" s="4">
+        <v>0</v>
+      </c>
+      <c r="C175" s="4">
+        <v>5.4384151053578573E-3</v>
+      </c>
+      <c r="D175" s="4">
+        <v>0</v>
+      </c>
+      <c r="E175" s="4">
+        <v>5.4384151053578573E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176" s="4">
+        <v>0</v>
+      </c>
+      <c r="C176" s="4">
+        <v>0</v>
+      </c>
+      <c r="D176" s="4">
+        <v>2.7192075526789286E-3</v>
+      </c>
+      <c r="E176" s="4">
+        <v>2.7192075526789286E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B177" s="4">
+        <v>4.4391164053371034E-2</v>
+      </c>
+      <c r="C177" s="4">
+        <v>2.9594109368914018E-2</v>
+      </c>
+      <c r="D177" s="4">
+        <v>1.4797054684457009E-2</v>
+      </c>
+      <c r="E177" s="4">
+        <v>8.8782328106742053E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178" s="4">
+        <v>0</v>
+      </c>
+      <c r="C178" s="4">
+        <v>2.9594109368914018E-2</v>
+      </c>
+      <c r="D178" s="4">
+        <v>0</v>
+      </c>
+      <c r="E178" s="4">
+        <v>2.9594109368914018E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B179" s="4">
+        <v>0</v>
+      </c>
+      <c r="C179" s="4">
+        <v>0</v>
+      </c>
+      <c r="D179" s="4">
+        <v>1.4797054684457009E-2</v>
+      </c>
+      <c r="E179" s="4">
+        <v>1.4797054684457009E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" s="4">
+        <v>4.4391164053371034E-2</v>
+      </c>
+      <c r="C180" s="4">
+        <v>0</v>
+      </c>
+      <c r="D180" s="4">
+        <v>0</v>
+      </c>
+      <c r="E180" s="4">
+        <v>4.4391164053371034E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B181" s="4">
+        <v>3.2926240617283937E-3</v>
+      </c>
+      <c r="C181" s="4">
+        <v>2.195082707818929E-3</v>
+      </c>
+      <c r="D181" s="4">
+        <v>1.0975413539094645E-3</v>
+      </c>
+      <c r="E181" s="4">
+        <v>6.5852481234567866E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B182" s="4">
+        <v>3.2926240617283937E-3</v>
+      </c>
+      <c r="C182" s="4">
+        <v>0</v>
+      </c>
+      <c r="D182" s="4">
+        <v>0</v>
+      </c>
+      <c r="E182" s="4">
+        <v>3.2926240617283937E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B183" s="4">
+        <v>0</v>
+      </c>
+      <c r="C183" s="4">
+        <v>0</v>
+      </c>
+      <c r="D183" s="4">
+        <v>1.0975413539094645E-3</v>
+      </c>
+      <c r="E183" s="4">
+        <v>1.0975413539094645E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" s="4">
+        <v>0</v>
+      </c>
+      <c r="C184" s="4">
+        <v>2.195082707818929E-3</v>
+      </c>
+      <c r="D184" s="4">
+        <v>0</v>
+      </c>
+      <c r="E184" s="4">
+        <v>2.195082707818929E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B185" s="4">
+        <v>8.0205246162405391E-4</v>
+      </c>
+      <c r="C185" s="4">
+        <v>5.3470164108270271E-4</v>
+      </c>
+      <c r="D185" s="4">
+        <v>2.6735082054135136E-4</v>
+      </c>
+      <c r="E185" s="4">
+        <v>1.604104923248108E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B186" s="4">
+        <v>0</v>
+      </c>
+      <c r="C186" s="4">
+        <v>0</v>
+      </c>
+      <c r="D186" s="4">
+        <v>2.6735082054135136E-4</v>
+      </c>
+      <c r="E186" s="4">
+        <v>2.6735082054135136E-4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B187" s="4">
+        <v>8.0205246162405391E-4</v>
+      </c>
+      <c r="C187" s="4">
+        <v>0</v>
+      </c>
+      <c r="D187" s="4">
+        <v>0</v>
+      </c>
+      <c r="E187" s="4">
+        <v>8.0205246162405391E-4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B188" s="4">
+        <v>0</v>
+      </c>
+      <c r="C188" s="4">
+        <v>5.3470164108270271E-4</v>
+      </c>
+      <c r="D188" s="4">
+        <v>0</v>
+      </c>
+      <c r="E188" s="4">
+        <v>5.3470164108270271E-4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B189" s="4">
+        <v>1.4562633662460378E-2</v>
+      </c>
+      <c r="C189" s="4">
+        <v>9.7084224416402517E-3</v>
+      </c>
+      <c r="D189" s="4">
+        <v>4.8542112208201258E-3</v>
+      </c>
+      <c r="E189" s="4">
+        <v>2.9125267324920753E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B190" s="4">
+        <v>0</v>
+      </c>
+      <c r="C190" s="4">
+        <v>0</v>
+      </c>
+      <c r="D190" s="4">
+        <v>4.8542112208201258E-3</v>
+      </c>
+      <c r="E190" s="4">
+        <v>4.8542112208201258E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B191" s="4">
+        <v>0</v>
+      </c>
+      <c r="C191" s="4">
+        <v>9.7084224416402517E-3</v>
+      </c>
+      <c r="D191" s="4">
+        <v>0</v>
+      </c>
+      <c r="E191" s="4">
+        <v>9.7084224416402517E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B192" s="4">
+        <v>1.4562633662460378E-2</v>
+      </c>
+      <c r="C192" s="4">
+        <v>0</v>
+      </c>
+      <c r="D192" s="4">
+        <v>0</v>
+      </c>
+      <c r="E192" s="4">
+        <v>1.4562633662460378E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B193" s="4">
+        <v>1.1869302992174953E-2</v>
+      </c>
+      <c r="C193" s="4">
+        <v>7.9128686614499694E-3</v>
+      </c>
+      <c r="D193" s="4">
+        <v>3.9564343307249847E-3</v>
+      </c>
+      <c r="E193" s="4">
+        <v>2.373860598434991E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>8.1047804514574925E-2</v>
-      </c>
-      <c r="F8" s="4">
-        <v>3.7284466183934487E-3</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="B194" s="4">
+        <v>1.1869302992174953E-2</v>
+      </c>
+      <c r="C194" s="4">
+        <v>0</v>
+      </c>
+      <c r="D194" s="4">
+        <v>0</v>
+      </c>
+      <c r="E194" s="4">
+        <v>1.1869302992174953E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B195" s="4">
+        <v>0</v>
+      </c>
+      <c r="C195" s="4">
+        <v>0</v>
+      </c>
+      <c r="D195" s="4">
+        <v>3.9564343307249847E-3</v>
+      </c>
+      <c r="E195" s="4">
+        <v>3.9564343307249847E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B196" s="4">
+        <v>0</v>
+      </c>
+      <c r="C196" s="4">
+        <v>7.9128686614499694E-3</v>
+      </c>
+      <c r="D196" s="4">
+        <v>0</v>
+      </c>
+      <c r="E196" s="4">
+        <v>7.9128686614499694E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B197" s="4">
+        <v>1.9703770261699531E-3</v>
+      </c>
+      <c r="C197" s="4">
+        <v>1.3135846841133021E-3</v>
+      </c>
+      <c r="D197" s="4">
+        <v>6.5679234205665103E-4</v>
+      </c>
+      <c r="E197" s="4">
+        <v>3.9407540523399062E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B198" s="4">
+        <v>0</v>
+      </c>
+      <c r="C198" s="4">
+        <v>0</v>
+      </c>
+      <c r="D198" s="4">
+        <v>6.5679234205665103E-4</v>
+      </c>
+      <c r="E198" s="4">
+        <v>6.5679234205665103E-4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="4">
-        <v>8.4776251132968369E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>6.5679234205665103E-4</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4">
-        <v>6.5679234205665103E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="B199" s="4">
+        <v>1.9703770261699531E-3</v>
+      </c>
+      <c r="C199" s="4">
+        <v>0</v>
+      </c>
+      <c r="D199" s="4">
+        <v>0</v>
+      </c>
+      <c r="E199" s="4">
+        <v>1.9703770261699531E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B200" s="4">
+        <v>0</v>
+      </c>
+      <c r="C200" s="4">
+        <v>1.3135846841133021E-3</v>
+      </c>
+      <c r="D200" s="4">
+        <v>0</v>
+      </c>
+      <c r="E200" s="4">
+        <v>1.3135846841133021E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B201" s="4">
+        <v>7.8357628524385985E-3</v>
+      </c>
+      <c r="C201" s="4">
+        <v>5.2238419016257323E-3</v>
+      </c>
+      <c r="D201" s="4">
+        <v>2.6119209508128662E-3</v>
+      </c>
+      <c r="E201" s="4">
+        <v>1.5671525704877197E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B202" s="4">
+        <v>0</v>
+      </c>
+      <c r="C202" s="4">
+        <v>5.2238419016257323E-3</v>
+      </c>
+      <c r="D202" s="4">
+        <v>0</v>
+      </c>
+      <c r="E202" s="4">
+        <v>5.2238419016257323E-3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B203" s="4">
+        <v>0</v>
+      </c>
+      <c r="C203" s="4">
+        <v>0</v>
+      </c>
+      <c r="D203" s="4">
+        <v>2.6119209508128662E-3</v>
+      </c>
+      <c r="E203" s="4">
+        <v>2.6119209508128662E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B204" s="4">
+        <v>7.8357628524385985E-3</v>
+      </c>
+      <c r="C204" s="4">
+        <v>0</v>
+      </c>
+      <c r="D204" s="4">
+        <v>0</v>
+      </c>
+      <c r="E204" s="4">
+        <v>7.8357628524385985E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B205" s="4">
+        <v>6.2616595095026702E-4</v>
+      </c>
+      <c r="C205" s="4">
+        <v>4.1744396730017803E-4</v>
+      </c>
+      <c r="D205" s="4">
+        <v>2.0872198365008902E-4</v>
+      </c>
+      <c r="E205" s="4">
+        <v>1.252331901900534E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="B206" s="4">
+        <v>0</v>
+      </c>
+      <c r="C206" s="4">
+        <v>0</v>
+      </c>
+      <c r="D206" s="4">
         <v>2.0872198365008902E-4</v>
       </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="E206" s="4">
         <v>2.0872198365008902E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="4">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B207" s="4">
+        <v>6.2616595095026702E-4</v>
+      </c>
+      <c r="C207" s="4">
+        <v>0</v>
+      </c>
+      <c r="D207" s="4">
+        <v>0</v>
+      </c>
+      <c r="E207" s="4">
+        <v>6.2616595095026702E-4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="4">
-        <v>4</v>
-      </c>
-      <c r="D11" s="4">
-        <v>7</v>
-      </c>
-      <c r="E11" s="4">
-        <v>7.3001040199595135E-2</v>
-      </c>
-      <c r="F11" s="4">
-        <v>3.2214478376843533E-2</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1.1766338525910844E-2</v>
-      </c>
-      <c r="H11" s="4">
-        <v>16</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0.11698185710234954</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="4">
-        <v>8</v>
-      </c>
-      <c r="C12" s="4">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4">
-        <v>3</v>
-      </c>
-      <c r="E12" s="4">
-        <v>2.2435540615621134E-2</v>
-      </c>
-      <c r="F12" s="4">
-        <v>7.1738653498000272E-3</v>
-      </c>
-      <c r="G12" s="4">
-        <v>6.0762789120120978E-3</v>
-      </c>
-      <c r="H12" s="4">
-        <v>13</v>
-      </c>
-      <c r="I12" s="4">
-        <v>3.568568487743326E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="4">
-        <v>13</v>
-      </c>
-      <c r="C13" s="4">
-        <v>10</v>
-      </c>
-      <c r="D13" s="4">
-        <v>6</v>
-      </c>
-      <c r="E13" s="4">
-        <v>9.7802138716522158E-2</v>
-      </c>
-      <c r="F13" s="4">
-        <v>8.605492807154079E-2</v>
-      </c>
-      <c r="G13" s="4">
-        <v>9.0943266576838516E-3</v>
-      </c>
-      <c r="H13" s="4">
-        <v>29</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0.19295139344574685</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="4">
-        <v>6</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
-        <v>2</v>
-      </c>
-      <c r="E14" s="4">
-        <v>5.1309189691015653E-2</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
-        <v>6.3277240750259089E-3</v>
-      </c>
-      <c r="H14" s="4">
-        <v>8</v>
-      </c>
-      <c r="I14" s="4">
-        <v>5.7636913766041561E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1.6840870965855572E-3</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1.6840870965855572E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="4">
-        <v>2</v>
-      </c>
-      <c r="C16" s="4">
-        <v>3</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4">
-        <v>2.0984468431977425E-2</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1.5884296535567496E-2</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1.0975413539094645E-3</v>
-      </c>
-      <c r="H16" s="4">
-        <v>6</v>
-      </c>
-      <c r="I16" s="4">
-        <v>3.7966306321454382E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1.8343613919056046E-3</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4">
-        <v>1.8343613919056046E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4">
-        <v>2</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <v>2.3412276611903957E-2</v>
-      </c>
-      <c r="G18" s="4">
-        <v>2.7053119571156733E-2</v>
-      </c>
-      <c r="H18" s="4">
-        <v>3</v>
-      </c>
-      <c r="I18" s="4">
-        <v>5.0465396183060694E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="4">
-        <v>4</v>
-      </c>
-      <c r="C19" s="4">
-        <v>6</v>
-      </c>
-      <c r="D19" s="4">
-        <v>13</v>
-      </c>
-      <c r="E19" s="4">
-        <v>5.4786887231657831E-2</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1.4945219125909624E-2</v>
-      </c>
-      <c r="G19" s="4">
-        <v>7.0046794296576051E-2</v>
-      </c>
-      <c r="H19" s="4">
-        <v>23</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0.1397789006541435</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
-        <v>5.1910610477219046E-4</v>
-      </c>
-      <c r="H20" s="4">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4">
-        <v>5.1910610477219046E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="4">
-        <v>1</v>
-      </c>
-      <c r="C21" s="4">
-        <v>3</v>
-      </c>
-      <c r="D21" s="4">
-        <v>5</v>
-      </c>
-      <c r="E21" s="4">
-        <v>8.9776338223904564E-4</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1.3873583328400465E-2</v>
-      </c>
-      <c r="G21" s="4">
-        <v>1.2092239446549372E-2</v>
-      </c>
-      <c r="H21" s="4">
-        <v>9</v>
-      </c>
-      <c r="I21" s="4">
-        <v>2.6863586157188882E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="4">
-        <v>1</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4">
-        <v>6.2616595095026702E-4</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4">
-        <v>1</v>
-      </c>
-      <c r="I22" s="4">
-        <v>6.2616595095026702E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="4">
-        <v>7</v>
-      </c>
-      <c r="C23" s="4">
-        <v>18</v>
-      </c>
-      <c r="D23" s="4">
-        <v>7</v>
-      </c>
-      <c r="E23" s="4">
-        <v>9.1516331338256249E-2</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0.1317923061744963</v>
-      </c>
-      <c r="G23" s="4">
-        <v>1.9407131857300329E-2</v>
-      </c>
-      <c r="H23" s="4">
-        <v>32</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0.24271576937005293</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="4">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4">
-        <v>3.6774232599324331E-4</v>
-      </c>
-      <c r="H24" s="4">
-        <v>1</v>
-      </c>
-      <c r="I24" s="4">
-        <v>3.6774232599324331E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="B208" s="4">
+        <v>0</v>
+      </c>
+      <c r="C208" s="4">
+        <v>4.1744396730017803E-4</v>
+      </c>
+      <c r="D208" s="4">
+        <v>0</v>
+      </c>
+      <c r="E208" s="4">
+        <v>4.1744396730017803E-4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="4">
-        <v>51</v>
-      </c>
-      <c r="C25" s="4">
-        <v>51</v>
-      </c>
-      <c r="D25" s="4">
-        <v>51</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0.49999999999999989</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G25" s="4">
+      <c r="B209" s="4">
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="C209" s="4">
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="D209" s="4">
         <v>0.16666666666666669</v>
       </c>
-      <c r="H25" s="4">
-        <v>153</v>
-      </c>
-      <c r="I25" s="4">
-        <v>1.0000000000000002</v>
+      <c r="E209" s="4">
+        <v>0.99999999999999978</v>
       </c>
     </row>
   </sheetData>
@@ -9483,8 +13013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9707,7 +13237,7 @@
         <v>136</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D10">
         <v>116</v>
@@ -9716,7 +13246,7 @@
         <v>74988084</v>
       </c>
       <c r="F10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J10">
         <v>364669088</v>
@@ -10217,7 +13747,7 @@
         <v>137</v>
       </c>
       <c r="I31" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J31">
         <f>H31*K29</f>
@@ -10241,10 +13771,10 @@
         <v>1201410765</v>
       </c>
       <c r="I32" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J32" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -10305,7 +13835,7 @@
         <v>1142374960</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J35" s="5">
         <v>194</v>
@@ -10328,7 +13858,7 @@
         <v>88977339</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J36" s="5">
         <v>77</v>
@@ -10538,7 +14068,7 @@
         <v>1206019130</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>136</v>
       </c>
@@ -10555,7 +14085,7 @@
         <v>982968246</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>135</v>
       </c>
@@ -10572,7 +14102,7 @@
         <v>163178752</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>136</v>
       </c>
@@ -10589,7 +14119,7 @@
         <v>648926569</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>135</v>
       </c>
@@ -10606,13 +14136,17 @@
         <v>51856562</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D53" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E53" s="5">
         <f>SUM(E2:E52)</f>
         <v>41408002081</v>
+      </c>
+      <c r="F53">
+        <f>E53/10^9</f>
+        <v>41.408002080999999</v>
       </c>
     </row>
   </sheetData>
@@ -11289,7 +14823,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11301,15 +14835,15 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -11330,10 +14864,10 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
